--- a/IONQ.xlsx
+++ b/IONQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63F8EC4-4E6C-4126-A072-8239F5A37FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1171B1-2B4E-415E-A89F-C430E52D5960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41680" yWindow="5090" windowWidth="25050" windowHeight="15270" xr2:uid="{AB3C49AB-D501-4FD3-A043-98BB663A0B7E}"/>
+    <workbookView xWindow="50380" yWindow="4260" windowWidth="17370" windowHeight="13000" activeTab="1" xr2:uid="{AB3C49AB-D501-4FD3-A043-98BB663A0B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
     40% NTM</t>
       </text>
     </comment>
-    <comment ref="S25" authorId="9" shapeId="0" xr:uid="{FFA193FF-5AD3-4912-B81F-6849603BFE55}">
+    <comment ref="S28" authorId="9" shapeId="0" xr:uid="{FFA193FF-5AD3-4912-B81F-6849603BFE55}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -151,7 +151,7 @@
     SOLD TO CHATANOOGA????</t>
       </text>
     </comment>
-    <comment ref="O27" authorId="10" shapeId="0" xr:uid="{CCD2BDA9-A64A-4B3B-B538-BAE0B9C2DA58}">
+    <comment ref="O30" authorId="10" shapeId="0" xr:uid="{CCD2BDA9-A64A-4B3B-B538-BAE0B9C2DA58}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -159,7 +159,7 @@
     Q423 guidance: 6.5-7.5m</t>
       </text>
     </comment>
-    <comment ref="P27" authorId="11" shapeId="0" xr:uid="{570D6212-29EC-4936-85A5-0C5D3CAB8233}">
+    <comment ref="P30" authorId="11" shapeId="0" xr:uid="{570D6212-29EC-4936-85A5-0C5D3CAB8233}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -167,7 +167,7 @@
     Q124 guidance: 7.6-9.2m</t>
       </text>
     </comment>
-    <comment ref="Q27" authorId="12" shapeId="0" xr:uid="{607E49BF-C060-4CB0-AF77-18A06334AC35}">
+    <comment ref="Q30" authorId="12" shapeId="0" xr:uid="{607E49BF-C060-4CB0-AF77-18A06334AC35}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -175,7 +175,7 @@
     Q224 guidance: 9-12m</t>
       </text>
     </comment>
-    <comment ref="R27" authorId="13" shapeId="0" xr:uid="{5947D9AF-E117-7546-888C-09B56A94889F}">
+    <comment ref="R30" authorId="13" shapeId="0" xr:uid="{5947D9AF-E117-7546-888C-09B56A94889F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -183,7 +183,7 @@
     Q3 guidance: 7.1-11.1 guidance</t>
       </text>
     </comment>
-    <comment ref="S27" authorId="14" shapeId="0" xr:uid="{053A4414-A51A-45B9-B016-DD6EE962A9D8}">
+    <comment ref="S30" authorId="14" shapeId="0" xr:uid="{053A4414-A51A-45B9-B016-DD6EE962A9D8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -191,7 +191,7 @@
     Q1 guidance: 7-8m</t>
       </text>
     </comment>
-    <comment ref="T27" authorId="15" shapeId="0" xr:uid="{77484200-1FBE-43A6-8894-D778E607D613}">
+    <comment ref="T30" authorId="15" shapeId="0" xr:uid="{77484200-1FBE-43A6-8894-D778E607D613}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -202,24 +202,28 @@
 $3m from ID QUANTIQUE!!!</t>
       </text>
     </comment>
-    <comment ref="U27" authorId="16" shapeId="0" xr:uid="{23C5B095-8E6F-4C1F-86D9-C212FE3E6F4D}">
+    <comment ref="U30" authorId="16" shapeId="0" xr:uid="{23C5B095-8E6F-4C1F-86D9-C212FE3E6F4D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     5/7/25 consensus: 25.8m
-Q3 guidance: 25-29m</t>
+11/5/25 consensus: 26.99m
+Q3 guidance: 25-29m
+9.6m from Capella
+6m from id Quantique</t>
       </text>
     </comment>
-    <comment ref="V27" authorId="17" shapeId="0" xr:uid="{D464E2DE-90EF-474F-B04E-42365CFFD3EC}">
+    <comment ref="V30" authorId="17" shapeId="0" xr:uid="{D464E2DE-90EF-474F-B04E-42365CFFD3EC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    5/7/25 consensus: 35.25m</t>
+    5/7/25 consensus: 35.25m
+11/5/25 consensus: 35.6m</t>
       </text>
     </comment>
-    <comment ref="AE27" authorId="18" shapeId="0" xr:uid="{6FD4C426-31B6-4D62-943F-4388146ADBBE}">
+    <comment ref="AE30" authorId="18" shapeId="0" xr:uid="{6FD4C426-31B6-4D62-943F-4388146ADBBE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -228,7 +232,7 @@
 2 significant customers</t>
       </text>
     </comment>
-    <comment ref="AF27" authorId="19" shapeId="0" xr:uid="{1A0A1B49-65D0-4998-B407-2792C10D6299}">
+    <comment ref="AF30" authorId="19" shapeId="0" xr:uid="{1A0A1B49-65D0-4998-B407-2792C10D6299}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -237,7 +241,7 @@
 3 significant customers = 70%</t>
       </text>
     </comment>
-    <comment ref="AG27" authorId="20" shapeId="0" xr:uid="{A6E9DABB-1376-4112-A26B-944B948407A8}">
+    <comment ref="AG30" authorId="20" shapeId="0" xr:uid="{A6E9DABB-1376-4112-A26B-944B948407A8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -246,7 +250,7 @@
 2 customers = 58%</t>
       </text>
     </comment>
-    <comment ref="AH27" authorId="21" shapeId="0" xr:uid="{C126CAEF-E2E0-4E27-89FF-07FBEE96CB7E}">
+    <comment ref="AH30" authorId="21" shapeId="0" xr:uid="{C126CAEF-E2E0-4E27-89FF-07FBEE96CB7E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -254,14 +258,15 @@
     Q3 guidance: raised to 38.5-42.5m</t>
       </text>
     </comment>
-    <comment ref="AI27" authorId="22" shapeId="0" xr:uid="{52746AA8-06E3-4D64-87ED-D1AB9D96C22E}">
+    <comment ref="AI30" authorId="22" shapeId="0" xr:uid="{52746AA8-06E3-4D64-87ED-D1AB9D96C22E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Q424 guidance: 75-95m
 83m consensus
-Q225 guidance: 82-100m</t>
+Q225 guidance: 82-100m
+Q325 guidance: 106-110m</t>
       </text>
     </comment>
   </commentList>
@@ -269,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="188">
   <si>
     <t>Price</t>
   </si>
@@ -851,6 +856,9 @@
   </si>
   <si>
     <t>Change in RPO</t>
+  </si>
+  <si>
+    <t>Acquired Revenue</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1007,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>18257</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>43542</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1049,7 +1057,7 @@
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>39120</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>85611</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1495,56 +1503,61 @@
   <threadedComment ref="S21" dT="2025-08-06T18:23:40.26" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{BD11E110-CD05-4C3D-86A6-5FC743366F0D}">
     <text>40% NTM</text>
   </threadedComment>
-  <threadedComment ref="S25" dT="2025-05-07T20:41:17.65" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{FFA193FF-5AD3-4912-B81F-6849603BFE55}">
+  <threadedComment ref="S28" dT="2025-05-07T20:41:17.65" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{FFA193FF-5AD3-4912-B81F-6849603BFE55}">
     <text>SOLD TO CHATANOOGA????</text>
   </threadedComment>
-  <threadedComment ref="O27" dT="2025-08-06T19:23:52.31" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{CCD2BDA9-A64A-4B3B-B538-BAE0B9C2DA58}">
+  <threadedComment ref="O30" dT="2025-08-06T19:23:52.31" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{CCD2BDA9-A64A-4B3B-B538-BAE0B9C2DA58}">
     <text>Q423 guidance: 6.5-7.5m</text>
   </threadedComment>
-  <threadedComment ref="P27" dT="2025-08-06T19:27:32.41" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{570D6212-29EC-4936-85A5-0C5D3CAB8233}">
+  <threadedComment ref="P30" dT="2025-08-06T19:27:32.41" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{570D6212-29EC-4936-85A5-0C5D3CAB8233}">
     <text>Q124 guidance: 7.6-9.2m</text>
   </threadedComment>
-  <threadedComment ref="Q27" dT="2025-08-06T19:29:18.48" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{607E49BF-C060-4CB0-AF77-18A06334AC35}">
+  <threadedComment ref="Q30" dT="2025-08-06T19:29:18.48" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{607E49BF-C060-4CB0-AF77-18A06334AC35}">
     <text>Q224 guidance: 9-12m</text>
   </threadedComment>
-  <threadedComment ref="R27" dT="2025-01-23T21:06:21.92" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{5947D9AF-E117-7546-888C-09B56A94889F}">
+  <threadedComment ref="R30" dT="2025-01-23T21:06:21.92" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{5947D9AF-E117-7546-888C-09B56A94889F}">
     <text>Q3 guidance: 7.1-11.1 guidance</text>
   </threadedComment>
-  <threadedComment ref="S27" dT="2025-08-06T19:35:51.70" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{053A4414-A51A-45B9-B016-DD6EE962A9D8}">
+  <threadedComment ref="S30" dT="2025-08-06T19:35:51.70" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{053A4414-A51A-45B9-B016-DD6EE962A9D8}">
     <text>Q1 guidance: 7-8m</text>
   </threadedComment>
-  <threadedComment ref="T27" dT="2025-05-07T20:37:01.43" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{77484200-1FBE-43A6-8894-D778E607D613}">
+  <threadedComment ref="T30" dT="2025-05-07T20:37:01.43" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{77484200-1FBE-43A6-8894-D778E607D613}">
     <text>Q125 guidance: 16-18m 
 5/7/25 consensus: 16.9m
 2 months of id quantique
 $3m from ID QUANTIQUE!!!</text>
   </threadedComment>
-  <threadedComment ref="U27" dT="2025-05-07T20:37:16.72" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{23C5B095-8E6F-4C1F-86D9-C212FE3E6F4D}">
+  <threadedComment ref="U30" dT="2025-05-07T20:37:16.72" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{23C5B095-8E6F-4C1F-86D9-C212FE3E6F4D}">
     <text>5/7/25 consensus: 25.8m
-Q3 guidance: 25-29m</text>
+11/5/25 consensus: 26.99m
+Q3 guidance: 25-29m
+9.6m from Capella
+6m from id Quantique</text>
   </threadedComment>
-  <threadedComment ref="V27" dT="2025-05-07T20:37:33.29" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{D464E2DE-90EF-474F-B04E-42365CFFD3EC}">
-    <text>5/7/25 consensus: 35.25m</text>
+  <threadedComment ref="V30" dT="2025-05-07T20:37:33.29" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{D464E2DE-90EF-474F-B04E-42365CFFD3EC}">
+    <text>5/7/25 consensus: 35.25m
+11/5/25 consensus: 35.6m</text>
   </threadedComment>
-  <threadedComment ref="AE27" dT="2025-01-07T19:48:39.04" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{6FD4C426-31B6-4D62-943F-4388146ADBBE}">
+  <threadedComment ref="AE30" dT="2025-01-07T19:48:39.04" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{6FD4C426-31B6-4D62-943F-4388146ADBBE}">
     <text>4 contracts
 2 significant customers</text>
   </threadedComment>
-  <threadedComment ref="AF27" dT="2025-01-07T19:59:59.56" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{1A0A1B49-65D0-4998-B407-2792C10D6299}">
+  <threadedComment ref="AF30" dT="2025-01-07T19:59:59.56" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{1A0A1B49-65D0-4998-B407-2792C10D6299}">
     <text>30.5m RPO, 60% in the next 12 months
 3 significant customers = 70%</text>
   </threadedComment>
-  <threadedComment ref="AG27" dT="2025-01-07T20:05:37.94" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{A6E9DABB-1376-4112-A26B-944B948407A8}">
+  <threadedComment ref="AG30" dT="2025-01-07T20:05:37.94" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{A6E9DABB-1376-4112-A26B-944B948407A8}">
     <text>69.1m RPO
 2 customers = 58%</text>
   </threadedComment>
-  <threadedComment ref="AH27" dT="2025-08-06T19:31:20.24" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{C126CAEF-E2E0-4E27-89FF-07FBEE96CB7E}">
+  <threadedComment ref="AH30" dT="2025-08-06T19:31:20.24" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{C126CAEF-E2E0-4E27-89FF-07FBEE96CB7E}">
     <text>Q3 guidance: raised to 38.5-42.5m</text>
   </threadedComment>
-  <threadedComment ref="AI27" dT="2025-02-26T17:16:34.73" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{52746AA8-06E3-4D64-87ED-D1AB9D96C22E}">
+  <threadedComment ref="AI30" dT="2025-02-26T17:16:34.73" personId="{8FE8731E-1419-4CF8-BDB7-325E36ECD730}" id="{52746AA8-06E3-4D64-87ED-D1AB9D96C22E}">
     <text>Q424 guidance: 75-95m
 83m consensus
-Q225 guidance: 82-100m</text>
+Q225 guidance: 82-100m
+Q325 guidance: 106-110m</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1553,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE29629-62F1-4661-9953-74545B1C68EA}">
   <dimension ref="B2:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1574,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="N2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1588,10 +1601,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="4">
-        <v>296.83779600000003</v>
+        <v>354.27959099999998</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" s="4"/>
       <c r="Q3" s="4"/>
@@ -1606,7 +1619,7 @@
       </c>
       <c r="J4" s="4">
         <f>+J2*J3</f>
-        <v>12467.187432000001</v>
+        <v>19485.377505</v>
       </c>
       <c r="N4" s="4"/>
       <c r="Q4" s="4"/>
@@ -1650,7 +1663,7 @@
       </c>
       <c r="J7" s="4">
         <f>+J4-J5+J6</f>
-        <v>10810.187432000001</v>
+        <v>17828.377505</v>
       </c>
       <c r="N7" s="4"/>
       <c r="Q7" s="4"/>
@@ -1917,13 +1930,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9653554-7BDA-444D-A237-3389B1272280}">
-  <dimension ref="A1:EC67"/>
+  <dimension ref="A1:EC70"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Q23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
+      <selection pane="bottomRight" activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2542,7 +2555,7 @@
         <v>3.8920714285714282</v>
       </c>
       <c r="T7" s="11">
-        <f>+T27*0.35</f>
+        <f>+T30*0.35</f>
         <v>7.2449999999999992</v>
       </c>
       <c r="U7" s="11">
@@ -2608,7 +2621,7 @@
         <v>2.2524999999999999</v>
       </c>
       <c r="T8" s="11">
-        <f>+T27*0.3</f>
+        <f>+T30*0.3</f>
         <v>6.21</v>
       </c>
       <c r="U8" s="11">
@@ -2659,11 +2672,11 @@
         <v>74</v>
       </c>
       <c r="K10" s="11">
-        <f>+K27*0.35</f>
+        <f>+K30*0.35</f>
         <v>1.5049999999999999</v>
       </c>
       <c r="L10" s="11">
-        <f t="shared" ref="L10:N10" si="5">+L27*0.35</f>
+        <f t="shared" ref="L10:N10" si="5">+L30*0.35</f>
         <v>1.9249999999999998</v>
       </c>
       <c r="M10" s="11">
@@ -2675,23 +2688,23 @@
         <v>2.1371000000000007</v>
       </c>
       <c r="O10" s="11">
-        <f>+O27*0.39</f>
+        <f>+O30*0.39</f>
         <v>2.9569800000000002</v>
       </c>
       <c r="P10" s="11">
-        <f>+P27*0.49</f>
+        <f>+P30*0.49</f>
         <v>5.5766900000000001</v>
       </c>
       <c r="Q10" s="11">
-        <f>+Q27*0.44</f>
+        <f>+Q30*0.44</f>
         <v>5.4560000000000004</v>
       </c>
       <c r="R10" s="11">
-        <f>+R27*0.47</f>
+        <f>+R30*0.47</f>
         <v>5.5037000000000003</v>
       </c>
       <c r="S10" s="11">
-        <f>+S27*0.4</f>
+        <f>+S30*0.4</f>
         <v>3.0266000000000002</v>
       </c>
       <c r="T10" s="10">
@@ -2699,7 +2712,7 @@
         <v>13.454999999999998</v>
       </c>
       <c r="AF10" s="10">
-        <f>+AF27*0.1</f>
+        <f>+AF30*0.1</f>
         <v>1.1131</v>
       </c>
       <c r="AH10" s="10">
@@ -2716,11 +2729,11 @@
         <v>75</v>
       </c>
       <c r="K11" s="11">
-        <f>+K27*0.25</f>
+        <f>+K30*0.25</f>
         <v>1.075</v>
       </c>
       <c r="L11" s="11">
-        <f t="shared" ref="L11:M11" si="6">+L27*0.25</f>
+        <f t="shared" ref="L11:M11" si="6">+L30*0.25</f>
         <v>1.375</v>
       </c>
       <c r="M11" s="11">
@@ -2728,32 +2741,32 @@
         <v>1.534</v>
       </c>
       <c r="N11" s="11">
-        <f>+N27*0.21</f>
+        <f>+N30*0.21</f>
         <v>1.2822600000000004</v>
       </c>
       <c r="O11" s="11">
-        <f>+O27*0.3</f>
+        <f>+O30*0.3</f>
         <v>2.2746</v>
       </c>
       <c r="P11" s="11">
-        <f>+P27*0.3</f>
+        <f>+P30*0.3</f>
         <v>3.4142999999999999</v>
       </c>
       <c r="Q11" s="11">
-        <f>+Q27*0.4</f>
+        <f>+Q30*0.4</f>
         <v>4.9600000000000009</v>
       </c>
       <c r="R11" s="11">
-        <f>+R27*0.3</f>
+        <f>+R30*0.3</f>
         <v>3.5130000000000003</v>
       </c>
       <c r="S11" s="11">
-        <f>+S27*0.3</f>
+        <f>+S30*0.3</f>
         <v>2.2699499999999997</v>
       </c>
       <c r="T11" s="10"/>
       <c r="AF11" s="10">
-        <f>+AF27*0.1</f>
+        <f>+AF30*0.1</f>
         <v>1.1131</v>
       </c>
       <c r="AH11" s="10">
@@ -2770,7 +2783,7 @@
         <v>167</v>
       </c>
       <c r="K12" s="14">
-        <f t="shared" ref="K12:P12" si="7">+K27-K10-K11-K15</f>
+        <f t="shared" ref="K12:P12" si="7">+K30-K10-K11-K15</f>
         <v>0.72799999999999998</v>
       </c>
       <c r="L12" s="14">
@@ -2794,19 +2807,19 @@
         <v>1.1900100000000002</v>
       </c>
       <c r="Q12" s="14">
-        <f>+Q27-Q11-Q10-Q15</f>
+        <f>+Q30-Q11-Q10-Q15</f>
         <v>1.1839999999999991</v>
       </c>
       <c r="R12" s="14">
-        <f>+R27-R10-R11-R15</f>
+        <f>+R30-R10-R11-R15</f>
         <v>2.3933</v>
       </c>
       <c r="S12" s="14">
-        <f>+S27-S10-S11-S15</f>
+        <f>+S30-S10-S11-S15</f>
         <v>2.2699499999999997</v>
       </c>
       <c r="T12" s="14">
-        <f>+T27-T10-T11-T15-T14</f>
+        <f>+T30-T10-T11-T15-T14</f>
         <v>3.120000000000001</v>
       </c>
       <c r="U12" s="10">
@@ -2823,11 +2836,11 @@
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
       <c r="AG12" s="10">
-        <f>+AG27-AG13</f>
+        <f>+AG30-AG13</f>
         <v>3.7420000000000009</v>
       </c>
       <c r="AH12" s="10">
-        <f>+AH27-AH13</f>
+        <f>+AH30-AH13</f>
         <v>15.433</v>
       </c>
       <c r="AI12" s="10">
@@ -2841,7 +2854,7 @@
       </c>
       <c r="M13" s="11"/>
       <c r="AF13" s="10">
-        <f>+AF27-AF11-AF10-3.3</f>
+        <f>+AF30-AF11-AF10-3.3</f>
         <v>5.6048000000000018</v>
       </c>
       <c r="AG13">
@@ -2986,7 +2999,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="22">
-        <f t="shared" ref="J17:R17" si="9">+SUM(K27:N27)-J20</f>
+        <f t="shared" ref="J17:R17" si="9">+SUM(K30:N30)-J20</f>
         <v>3.7420000000000009</v>
       </c>
       <c r="K17" s="22">
@@ -3015,19 +3028,19 @@
       </c>
       <c r="Q17" s="22">
         <f t="shared" si="9"/>
-        <v>31.946500000000007</v>
+        <v>46.812500000000007</v>
       </c>
       <c r="R17" s="22">
         <f t="shared" si="9"/>
-        <v>49.386500000000005</v>
+        <v>64.252499999999998</v>
       </c>
       <c r="S17" s="22">
-        <f>+SUM(T27:AB27)-S20</f>
-        <v>70.94</v>
+        <f>+SUM(T30:AB30)-S20</f>
+        <v>85.805999999999997</v>
       </c>
       <c r="T17" s="22">
-        <f>+SUM(U27:AC27)-T20</f>
-        <v>18.050000000000004</v>
+        <f>+SUM(U30:AC30)-T20</f>
+        <v>32.916000000000004</v>
       </c>
       <c r="AF17" s="23"/>
       <c r="AH17" s="23"/>
@@ -3049,23 +3062,23 @@
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="22">
-        <f>+K27-J19</f>
+        <f>+K30-J19</f>
         <v>-0.27500000000000036</v>
       </c>
       <c r="L18" s="22">
-        <f>+L27-K19</f>
+        <f>+L30-K19</f>
         <v>0.94000000000000039</v>
       </c>
       <c r="M18" s="22">
-        <f>+M27-L19</f>
+        <f>+M30-L19</f>
         <v>1.226</v>
       </c>
       <c r="N18" s="22">
-        <f>+N27-M19</f>
+        <f>+N30-M19</f>
         <v>-0.29024999999999679</v>
       </c>
       <c r="O18" s="22">
-        <f t="shared" ref="O18:R18" si="10">+O27-N19</f>
+        <f t="shared" ref="O18:R18" si="10">+O30-N19</f>
         <v>0.67199999999999971</v>
       </c>
       <c r="P18" s="22">
@@ -3081,11 +3094,11 @@
         <v>3.4525000000000023</v>
       </c>
       <c r="S18" s="22">
-        <f>+S27-R19</f>
+        <f>+S30-R19</f>
         <v>-0.15350000000000108</v>
       </c>
       <c r="T18" s="22">
-        <f>+T27-S19</f>
+        <f>+T30-S19</f>
         <v>13.509999999999998</v>
       </c>
       <c r="AF18" s="23"/>
@@ -3254,11 +3267,11 @@
         <v>99</v>
       </c>
       <c r="G22" s="11">
-        <f>+G27-G23</f>
+        <f>+G30-G23</f>
         <v>0.25388999999999995</v>
       </c>
       <c r="K22" s="11">
-        <f>+K27-K23</f>
+        <f>+K30-K23</f>
         <v>0.60199999999999987</v>
       </c>
       <c r="L22" s="11">
@@ -3308,14 +3321,14 @@
         <v>100</v>
       </c>
       <c r="G23" s="11">
-        <f>+G27*0.87</f>
+        <f>+G30*0.87</f>
         <v>1.6991100000000001</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11">
-        <f>+K27*0.86</f>
+        <f>+K30*0.86</f>
         <v>3.698</v>
       </c>
       <c r="L23" s="11">
@@ -3361,6 +3374,20 @@
       <c r="AL23" s="10"/>
     </row>
     <row r="24" spans="2:110" x14ac:dyDescent="0.25">
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
       <c r="AF24" s="10"/>
       <c r="AH24" s="10"/>
       <c r="AI24" s="10"/>
@@ -3369,1533 +3396,1251 @@
       <c r="AL24" s="10"/>
     </row>
     <row r="25" spans="2:110" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>97</v>
-      </c>
-      <c r="K25" s="11">
-        <v>1.3340000000000001</v>
-      </c>
-      <c r="L25" s="11">
-        <v>1.99</v>
-      </c>
-      <c r="M25" s="11">
-        <v>2.0059999999999998</v>
-      </c>
-      <c r="N25" s="11">
-        <f>7.083-M25-L25-K25</f>
-        <v>1.7529999999999997</v>
-      </c>
-      <c r="O25" s="11">
-        <v>3.6190000000000002</v>
-      </c>
-      <c r="P25" s="11">
-        <v>7.3380000000000001</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>6.3449999999999998</v>
-      </c>
-      <c r="R25" s="11">
-        <f>21.594-Q25-P25-O25</f>
-        <v>4.2920000000000016</v>
-      </c>
-      <c r="S25" s="11">
-        <v>3.0630000000000002</v>
-      </c>
-      <c r="T25" s="11">
-        <v>14.066000000000001</v>
-      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
       <c r="AF25" s="10"/>
-      <c r="AH25" s="10">
-        <f>SUM(O25:R25)</f>
-        <v>21.594000000000001</v>
-      </c>
-      <c r="AI25" s="10">
-        <f>SUM(S25:V25)</f>
-        <v>17.129000000000001</v>
-      </c>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
       <c r="AJ25" s="10"/>
       <c r="AK25" s="10"/>
       <c r="AL25" s="10"/>
     </row>
     <row r="26" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>98</v>
-      </c>
-      <c r="K26" s="11">
-        <v>2.9510000000000001</v>
-      </c>
-      <c r="L26" s="11">
-        <v>3.5249999999999999</v>
-      </c>
-      <c r="M26" s="11">
-        <v>4.13</v>
-      </c>
-      <c r="N26" s="11">
-        <f>14.959-M26-L26-K26</f>
-        <v>4.3529999999999998</v>
-      </c>
-      <c r="O26" s="11">
-        <v>3.9630000000000001</v>
-      </c>
-      <c r="P26" s="11">
-        <v>4.0430000000000001</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
       <c r="Q26" s="11">
-        <v>6.0549999999999997</v>
-      </c>
-      <c r="R26" s="11">
-        <f>21.479-Q26-P26-O26</f>
-        <v>7.4180000000000001</v>
-      </c>
-      <c r="S26" s="11">
-        <v>4.5030000000000001</v>
-      </c>
-      <c r="T26" s="11">
-        <v>6.6280000000000001</v>
+        <f>30.724-Q30</f>
+        <v>18.323999999999998</v>
+      </c>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="4">
+        <f>+Q26*1.48</f>
+        <v>27.119519999999998</v>
       </c>
       <c r="AF26" s="10"/>
-      <c r="AH26" s="10">
-        <f>SUM(O26:R26)</f>
-        <v>21.478999999999999</v>
-      </c>
-      <c r="AI26" s="10">
-        <f>SUM(S26:V26)</f>
-        <v>11.131</v>
-      </c>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
       <c r="AJ26" s="10"/>
       <c r="AK26" s="10"/>
       <c r="AL26" s="10"/>
     </row>
-    <row r="27" spans="2:110" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B27" s="13" t="s">
+    <row r="27" spans="2:110" x14ac:dyDescent="0.25">
+      <c r="U27" s="4">
+        <f>+U26+12.4</f>
+        <v>39.51952</v>
+      </c>
+      <c r="AF27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+    </row>
+    <row r="28" spans="2:110" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="K28" s="11">
+        <v>1.3340000000000001</v>
+      </c>
+      <c r="L28" s="11">
+        <v>1.99</v>
+      </c>
+      <c r="M28" s="11">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="N28" s="11">
+        <f>7.083-M28-L28-K28</f>
+        <v>1.7529999999999997</v>
+      </c>
+      <c r="O28" s="11">
+        <v>3.6190000000000002</v>
+      </c>
+      <c r="P28" s="11">
+        <v>7.3380000000000001</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>6.3449999999999998</v>
+      </c>
+      <c r="R28" s="11">
+        <f>21.594-Q28-P28-O28</f>
+        <v>4.2920000000000016</v>
+      </c>
+      <c r="S28" s="11">
+        <v>3.0630000000000002</v>
+      </c>
+      <c r="T28" s="11">
+        <v>14.066000000000001</v>
+      </c>
+      <c r="U28" s="11">
+        <v>21.584</v>
+      </c>
+      <c r="AF28" s="10"/>
+      <c r="AH28" s="10">
+        <f>SUM(O28:R28)</f>
+        <v>21.594000000000001</v>
+      </c>
+      <c r="AI28" s="10">
+        <f>SUM(S28:V28)</f>
+        <v>38.713000000000001</v>
+      </c>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+    </row>
+    <row r="29" spans="2:110" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" s="11">
+        <v>2.9510000000000001</v>
+      </c>
+      <c r="L29" s="11">
+        <v>3.5249999999999999</v>
+      </c>
+      <c r="M29" s="11">
+        <v>4.13</v>
+      </c>
+      <c r="N29" s="11">
+        <f>14.959-M29-L29-K29</f>
+        <v>4.3529999999999998</v>
+      </c>
+      <c r="O29" s="11">
+        <v>3.9630000000000001</v>
+      </c>
+      <c r="P29" s="11">
+        <v>4.0430000000000001</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>6.0549999999999997</v>
+      </c>
+      <c r="R29" s="11">
+        <f>21.479-Q29-P29-O29</f>
+        <v>7.4180000000000001</v>
+      </c>
+      <c r="S29" s="11">
+        <v>4.5030000000000001</v>
+      </c>
+      <c r="T29" s="11">
+        <v>6.6280000000000001</v>
+      </c>
+      <c r="U29" s="11">
+        <v>18.282</v>
+      </c>
+      <c r="AF29" s="10"/>
+      <c r="AH29" s="10">
+        <f>SUM(O29:R29)</f>
+        <v>21.478999999999999</v>
+      </c>
+      <c r="AI29" s="10">
+        <f>SUM(S29:V29)</f>
+        <v>29.413</v>
+      </c>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+    </row>
+    <row r="30" spans="2:110" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B30" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14">
         <v>0.23300000000000001</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14">
+      <c r="F30" s="14"/>
+      <c r="G30" s="14">
         <v>1.9530000000000001</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H30" s="14">
         <v>2.6080000000000001</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I30" s="14">
         <v>2.7629999999999999</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J30" s="14">
         <v>3.8</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K30" s="14">
         <v>4.3</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L30" s="14">
         <v>5.5</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M30" s="14">
         <v>6.1360000000000001</v>
       </c>
-      <c r="N27" s="14">
-        <f>+AG27-M27-L27-K27</f>
+      <c r="N30" s="14">
+        <f>+AG30-M30-L30-K30</f>
         <v>6.1060000000000025</v>
       </c>
-      <c r="O27" s="14">
+      <c r="O30" s="14">
         <v>7.5819999999999999</v>
       </c>
-      <c r="P27" s="14">
+      <c r="P30" s="14">
         <v>11.381</v>
       </c>
-      <c r="Q27" s="14">
+      <c r="Q30" s="14">
         <v>12.4</v>
       </c>
-      <c r="R27" s="14">
+      <c r="R30" s="14">
         <v>11.71</v>
       </c>
-      <c r="S27" s="14">
+      <c r="S30" s="14">
         <v>7.5664999999999996</v>
       </c>
-      <c r="T27" s="13">
+      <c r="T30" s="13">
         <v>20.7</v>
       </c>
-      <c r="U27" s="13">
-        <v>25</v>
-      </c>
-      <c r="V27" s="13">
+      <c r="U30" s="13">
+        <f>39.866</f>
+        <v>39.866</v>
+      </c>
+      <c r="V30" s="13">
         <v>27</v>
       </c>
-      <c r="W27" s="13">
-        <f>+V27</f>
+      <c r="W30" s="13">
+        <f>+V30</f>
         <v>27</v>
       </c>
-      <c r="AC27" s="13">
+      <c r="AC30" s="13">
         <v>0.2</v>
       </c>
-      <c r="AD27" s="13">
+      <c r="AD30" s="13">
         <v>0</v>
       </c>
-      <c r="AE27" s="13">
+      <c r="AE30" s="13">
         <v>2.0990000000000002</v>
       </c>
-      <c r="AF27" s="13">
+      <c r="AF30" s="13">
         <v>11.131</v>
       </c>
-      <c r="AG27" s="13">
+      <c r="AG30" s="13">
         <v>22.042000000000002</v>
       </c>
-      <c r="AH27" s="13">
-        <f>SUM(O27:R27)</f>
+      <c r="AH30" s="13">
+        <f>SUM(O30:R30)</f>
         <v>43.073</v>
       </c>
-      <c r="AI27" s="13">
-        <f>+AH27*1.9</f>
+      <c r="AI30" s="13">
+        <f>+AH30*1.9</f>
         <v>81.838700000000003</v>
       </c>
-      <c r="AJ27" s="13">
-        <f>+AI27*1.9</f>
+      <c r="AJ30" s="13">
+        <f>+AI30*1.9</f>
         <v>155.49352999999999</v>
       </c>
-      <c r="AK27" s="13">
-        <f>+AJ27*1.9</f>
+      <c r="AK30" s="13">
+        <f>+AJ30*1.9</f>
         <v>295.43770699999999</v>
       </c>
-      <c r="AL27" s="13">
-        <f>+AK27*1.9</f>
+      <c r="AL30" s="13">
+        <f>+AK30*1.9</f>
         <v>561.3316433</v>
       </c>
-      <c r="AM27" s="13">
-        <f>+AL27*1.9</f>
+      <c r="AM30" s="13">
+        <f>+AL30*1.9</f>
         <v>1066.53012227</v>
       </c>
-      <c r="AN27" s="13">
-        <f>+AM27*1.1</f>
+      <c r="AN30" s="13">
+        <f>+AM30*1.1</f>
         <v>1173.1831344970001</v>
       </c>
-      <c r="AO27" s="13">
-        <f t="shared" ref="AO27:AS27" si="12">+AN27*1.1</f>
+      <c r="AO30" s="13">
+        <f t="shared" ref="AO30:AS30" si="12">+AN30*1.1</f>
         <v>1290.5014479467002</v>
       </c>
-      <c r="AP27" s="13">
+      <c r="AP30" s="13">
         <f t="shared" si="12"/>
         <v>1419.5515927413703</v>
       </c>
-      <c r="AQ27" s="13">
+      <c r="AQ30" s="13">
         <f t="shared" si="12"/>
         <v>1561.5067520155076</v>
       </c>
-      <c r="AR27" s="13">
+      <c r="AR30" s="13">
         <f t="shared" si="12"/>
         <v>1717.6574272170585</v>
       </c>
-      <c r="AS27" s="13">
+      <c r="AS30" s="13">
         <f t="shared" si="12"/>
         <v>1889.4231699387644</v>
       </c>
-      <c r="AT27" s="13">
-        <f>+AS27*1.1</f>
+      <c r="AT30" s="13">
+        <f>+AS30*1.1</f>
         <v>2078.365486932641</v>
       </c>
-      <c r="AU27" s="13">
-        <f t="shared" ref="AU27:DF27" si="13">+AT27*1.1</f>
+      <c r="AU30" s="13">
+        <f t="shared" ref="AU30:DF30" si="13">+AT30*1.1</f>
         <v>2286.2020356259054</v>
       </c>
-      <c r="AV27" s="13">
+      <c r="AV30" s="13">
         <f t="shared" si="13"/>
         <v>2514.822239188496</v>
       </c>
-      <c r="AW27" s="13">
+      <c r="AW30" s="13">
         <f t="shared" si="13"/>
         <v>2766.3044631073458</v>
       </c>
-      <c r="AX27" s="13">
+      <c r="AX30" s="13">
         <f t="shared" si="13"/>
         <v>3042.9349094180807</v>
       </c>
-      <c r="AY27" s="13">
+      <c r="AY30" s="13">
         <f t="shared" si="13"/>
         <v>3347.2284003598888</v>
       </c>
-      <c r="AZ27" s="13">
+      <c r="AZ30" s="13">
         <f t="shared" si="13"/>
         <v>3681.9512403958779</v>
       </c>
-      <c r="BA27" s="13">
+      <c r="BA30" s="13">
         <f t="shared" si="13"/>
         <v>4050.1463644354662</v>
       </c>
-      <c r="BB27" s="13">
+      <c r="BB30" s="13">
         <f t="shared" si="13"/>
         <v>4455.161000879013</v>
       </c>
-      <c r="BC27" s="13">
+      <c r="BC30" s="13">
         <f t="shared" si="13"/>
         <v>4900.6771009669146</v>
       </c>
-      <c r="BD27" s="13">
+      <c r="BD30" s="13">
         <f t="shared" si="13"/>
         <v>5390.7448110636069</v>
       </c>
-      <c r="BE27" s="13">
+      <c r="BE30" s="13">
         <f t="shared" si="13"/>
         <v>5929.8192921699683</v>
       </c>
-      <c r="BF27" s="13">
+      <c r="BF30" s="13">
         <f t="shared" si="13"/>
         <v>6522.8012213869661</v>
       </c>
-      <c r="BG27" s="13">
+      <c r="BG30" s="13">
         <f t="shared" si="13"/>
         <v>7175.0813435256632</v>
       </c>
-      <c r="BH27" s="13">
+      <c r="BH30" s="13">
         <f t="shared" si="13"/>
         <v>7892.5894778782304</v>
       </c>
-      <c r="BI27" s="13">
+      <c r="BI30" s="13">
         <f t="shared" si="13"/>
         <v>8681.848425666054</v>
       </c>
-      <c r="BJ27" s="13">
+      <c r="BJ30" s="13">
         <f t="shared" si="13"/>
         <v>9550.0332682326607</v>
       </c>
-      <c r="BK27" s="13">
+      <c r="BK30" s="13">
         <f t="shared" si="13"/>
         <v>10505.036595055928</v>
       </c>
-      <c r="BL27" s="13">
+      <c r="BL30" s="13">
         <f t="shared" si="13"/>
         <v>11555.540254561522</v>
       </c>
-      <c r="BM27" s="13">
+      <c r="BM30" s="13">
         <f t="shared" si="13"/>
         <v>12711.094280017674</v>
       </c>
-      <c r="BN27" s="13">
+      <c r="BN30" s="13">
         <f t="shared" si="13"/>
         <v>13982.203708019442</v>
       </c>
-      <c r="BO27" s="13">
+      <c r="BO30" s="13">
         <f t="shared" si="13"/>
         <v>15380.424078821388</v>
       </c>
-      <c r="BP27" s="13">
+      <c r="BP30" s="13">
         <f t="shared" si="13"/>
         <v>16918.466486703528</v>
       </c>
-      <c r="BQ27" s="13">
+      <c r="BQ30" s="13">
         <f t="shared" si="13"/>
         <v>18610.313135373883</v>
       </c>
-      <c r="BR27" s="13">
+      <c r="BR30" s="13">
         <f t="shared" si="13"/>
         <v>20471.344448911274</v>
       </c>
-      <c r="BS27" s="13">
+      <c r="BS30" s="13">
         <f t="shared" si="13"/>
         <v>22518.478893802403</v>
       </c>
-      <c r="BT27" s="13">
+      <c r="BT30" s="13">
         <f t="shared" si="13"/>
         <v>24770.326783182645</v>
       </c>
-      <c r="BU27" s="13">
+      <c r="BU30" s="13">
         <f t="shared" si="13"/>
         <v>27247.359461500913</v>
       </c>
-      <c r="BV27" s="13">
+      <c r="BV30" s="13">
         <f t="shared" si="13"/>
         <v>29972.095407651006</v>
       </c>
-      <c r="BW27" s="13">
+      <c r="BW30" s="13">
         <f t="shared" si="13"/>
         <v>32969.304948416109</v>
       </c>
-      <c r="BX27" s="13">
+      <c r="BX30" s="13">
         <f t="shared" si="13"/>
         <v>36266.235443257727</v>
       </c>
-      <c r="BY27" s="13">
+      <c r="BY30" s="13">
         <f t="shared" si="13"/>
         <v>39892.858987583502</v>
       </c>
-      <c r="BZ27" s="13">
+      <c r="BZ30" s="13">
         <f t="shared" si="13"/>
         <v>43882.144886341855</v>
       </c>
-      <c r="CA27" s="13">
+      <c r="CA30" s="13">
         <f t="shared" si="13"/>
         <v>48270.359374976048</v>
       </c>
-      <c r="CB27" s="13">
+      <c r="CB30" s="13">
         <f t="shared" si="13"/>
         <v>53097.395312473658</v>
       </c>
-      <c r="CC27" s="13">
+      <c r="CC30" s="13">
         <f t="shared" si="13"/>
         <v>58407.134843721025</v>
       </c>
-      <c r="CD27" s="13">
+      <c r="CD30" s="13">
         <f t="shared" si="13"/>
         <v>64247.848328093132</v>
       </c>
-      <c r="CE27" s="13">
+      <c r="CE30" s="13">
         <f t="shared" si="13"/>
         <v>70672.633160902449</v>
       </c>
-      <c r="CF27" s="13">
+      <c r="CF30" s="13">
         <f t="shared" si="13"/>
         <v>77739.896476992697</v>
       </c>
-      <c r="CG27" s="13">
+      <c r="CG30" s="13">
         <f t="shared" si="13"/>
         <v>85513.88612469197</v>
       </c>
-      <c r="CH27" s="13">
+      <c r="CH30" s="13">
         <f t="shared" si="13"/>
         <v>94065.274737161177</v>
       </c>
-      <c r="CI27" s="13">
+      <c r="CI30" s="13">
         <f t="shared" si="13"/>
         <v>103471.8022108773</v>
       </c>
-      <c r="CJ27" s="13">
+      <c r="CJ30" s="13">
         <f t="shared" si="13"/>
         <v>113818.98243196504</v>
       </c>
-      <c r="CK27" s="13">
+      <c r="CK30" s="13">
         <f t="shared" si="13"/>
         <v>125200.88067516155</v>
       </c>
-      <c r="CL27" s="13">
+      <c r="CL30" s="13">
         <f t="shared" si="13"/>
         <v>137720.96874267771</v>
       </c>
-      <c r="CM27" s="13">
+      <c r="CM30" s="13">
         <f t="shared" si="13"/>
         <v>151493.0656169455</v>
       </c>
-      <c r="CN27" s="13">
+      <c r="CN30" s="13">
         <f t="shared" si="13"/>
         <v>166642.37217864007</v>
       </c>
-      <c r="CO27" s="13">
+      <c r="CO30" s="13">
         <f t="shared" si="13"/>
         <v>183306.60939650409</v>
       </c>
-      <c r="CP27" s="13">
+      <c r="CP30" s="13">
         <f t="shared" si="13"/>
         <v>201637.27033615453</v>
       </c>
-      <c r="CQ27" s="13">
+      <c r="CQ30" s="13">
         <f t="shared" si="13"/>
         <v>221800.99736976999</v>
       </c>
-      <c r="CR27" s="13">
+      <c r="CR30" s="13">
         <f t="shared" si="13"/>
         <v>243981.09710674701</v>
       </c>
-      <c r="CS27" s="13">
+      <c r="CS30" s="13">
         <f t="shared" si="13"/>
         <v>268379.20681742171</v>
       </c>
-      <c r="CT27" s="13">
+      <c r="CT30" s="13">
         <f t="shared" si="13"/>
         <v>295217.12749916391</v>
       </c>
-      <c r="CU27" s="13">
+      <c r="CU30" s="13">
         <f t="shared" si="13"/>
         <v>324738.84024908033</v>
       </c>
-      <c r="CV27" s="13">
+      <c r="CV30" s="13">
         <f t="shared" si="13"/>
         <v>357212.72427398839</v>
       </c>
-      <c r="CW27" s="13">
+      <c r="CW30" s="13">
         <f t="shared" si="13"/>
         <v>392933.99670138728</v>
       </c>
-      <c r="CX27" s="13">
+      <c r="CX30" s="13">
         <f t="shared" si="13"/>
         <v>432227.39637152606</v>
       </c>
-      <c r="CY27" s="13">
+      <c r="CY30" s="13">
         <f t="shared" si="13"/>
         <v>475450.1360086787</v>
       </c>
-      <c r="CZ27" s="13">
+      <c r="CZ30" s="13">
         <f t="shared" si="13"/>
         <v>522995.14960954664</v>
       </c>
-      <c r="DA27" s="13">
+      <c r="DA30" s="13">
         <f t="shared" si="13"/>
         <v>575294.66457050131</v>
       </c>
-      <c r="DB27" s="13">
+      <c r="DB30" s="13">
         <f t="shared" si="13"/>
         <v>632824.13102755148</v>
       </c>
-      <c r="DC27" s="13">
+      <c r="DC30" s="13">
         <f t="shared" si="13"/>
         <v>696106.54413030669</v>
       </c>
-      <c r="DD27" s="13">
+      <c r="DD30" s="13">
         <f t="shared" si="13"/>
         <v>765717.19854333741</v>
       </c>
-      <c r="DE27" s="13">
+      <c r="DE30" s="13">
         <f t="shared" si="13"/>
         <v>842288.91839767119</v>
       </c>
-      <c r="DF27" s="13">
+      <c r="DF30" s="13">
         <f t="shared" si="13"/>
         <v>926517.81023743842</v>
       </c>
     </row>
-    <row r="28" spans="2:110" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="H28" s="11">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="I28" s="11">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="J28" s="11">
-        <f>2.944-I28-H28-G28</f>
-        <v>0.90099999999999991</v>
-      </c>
-      <c r="K28" s="11">
-        <v>1.036</v>
-      </c>
-      <c r="L28" s="11">
-        <v>1.901</v>
-      </c>
-      <c r="M28" s="11">
-        <v>2.008</v>
-      </c>
-      <c r="N28" s="11">
-        <f>+AG28-M28-L28-K28</f>
-        <v>3.1630000000000007</v>
-      </c>
-      <c r="O28" s="11">
-        <v>3.4140000000000001</v>
-      </c>
-      <c r="P28" s="11">
-        <v>5.6230000000000002</v>
-      </c>
-      <c r="Q28" s="11">
-        <v>6.5149999999999997</v>
-      </c>
-      <c r="R28" s="11">
-        <v>5.0449999999999999</v>
-      </c>
-      <c r="S28" s="11">
-        <v>4.3150000000000004</v>
-      </c>
-      <c r="T28" s="10">
-        <v>8.327</v>
-      </c>
-      <c r="U28" s="10">
-        <f>+U27-U29</f>
-        <v>12.5</v>
-      </c>
-      <c r="V28" s="10">
-        <f>+V27-V29</f>
-        <v>13.5</v>
-      </c>
-      <c r="AD28" s="10">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="AE28" s="10">
-        <v>1.04</v>
-      </c>
-      <c r="AF28" s="10">
-        <v>2.944</v>
-      </c>
-      <c r="AG28" s="10">
-        <v>8.1080000000000005</v>
-      </c>
-      <c r="AH28" s="10">
-        <f>SUM(O28:R28)</f>
-        <v>20.597000000000001</v>
-      </c>
-      <c r="AI28" s="10">
-        <f>+AI27-AI29</f>
-        <v>24.551610000000004</v>
-      </c>
-      <c r="AJ28" s="10">
-        <f t="shared" ref="AJ28:AS28" si="14">+AJ27-AJ29</f>
-        <v>46.648059000000003</v>
-      </c>
-      <c r="AK28" s="10">
-        <f t="shared" si="14"/>
-        <v>88.631312100000002</v>
-      </c>
-      <c r="AL28" s="10">
-        <f t="shared" si="14"/>
-        <v>168.39949299</v>
-      </c>
-      <c r="AM28" s="10">
-        <f t="shared" si="14"/>
-        <v>319.95903668100004</v>
-      </c>
-      <c r="AN28" s="10">
-        <f t="shared" si="14"/>
-        <v>351.95494034910007</v>
-      </c>
-      <c r="AO28" s="10">
-        <f t="shared" si="14"/>
-        <v>387.15043438401017</v>
-      </c>
-      <c r="AP28" s="10">
-        <f t="shared" si="14"/>
-        <v>425.86547782241121</v>
-      </c>
-      <c r="AQ28" s="10">
-        <f t="shared" si="14"/>
-        <v>468.45202560465236</v>
-      </c>
-      <c r="AR28" s="10">
-        <f t="shared" si="14"/>
-        <v>515.29722816511753</v>
-      </c>
-      <c r="AS28" s="10">
-        <f t="shared" si="14"/>
-        <v>566.82695098162935</v>
-      </c>
-    </row>
-    <row r="29" spans="2:110" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11">
-        <f>+G27-G28</f>
-        <v>1.3850000000000002</v>
-      </c>
-      <c r="H29" s="11">
-        <f>+H27-H28</f>
-        <v>1.8660000000000001</v>
-      </c>
-      <c r="I29" s="11">
-        <f t="shared" ref="I29:Q29" si="15">+I27-I28</f>
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="J29" s="11">
-        <f t="shared" si="15"/>
-        <v>2.899</v>
-      </c>
-      <c r="K29" s="11">
-        <f t="shared" si="15"/>
-        <v>3.2639999999999998</v>
-      </c>
-      <c r="L29" s="11">
-        <f t="shared" si="15"/>
-        <v>3.5990000000000002</v>
-      </c>
-      <c r="M29" s="11">
-        <f t="shared" si="15"/>
-        <v>4.1280000000000001</v>
-      </c>
-      <c r="N29" s="11">
-        <f t="shared" si="15"/>
-        <v>2.9430000000000018</v>
-      </c>
-      <c r="O29" s="11">
-        <f t="shared" si="15"/>
-        <v>4.1679999999999993</v>
-      </c>
-      <c r="P29" s="11">
-        <f t="shared" si="15"/>
-        <v>5.758</v>
-      </c>
-      <c r="Q29" s="11">
-        <f t="shared" si="15"/>
-        <v>5.8850000000000007</v>
-      </c>
-      <c r="R29" s="11">
-        <f>+R27-R28</f>
-        <v>6.6650000000000009</v>
-      </c>
-      <c r="S29" s="11">
-        <f>+S27-S28</f>
-        <v>3.2514999999999992</v>
-      </c>
-      <c r="T29" s="10">
-        <f>+T27-T28</f>
-        <v>12.372999999999999</v>
-      </c>
-      <c r="U29" s="10">
-        <f>+U27*0.5</f>
-        <v>12.5</v>
-      </c>
-      <c r="V29" s="10">
-        <f>+V27*0.5</f>
-        <v>13.5</v>
-      </c>
-      <c r="AD29" s="10">
-        <f>+AD27-AD28</f>
-        <v>-0.14299999999999999</v>
-      </c>
-      <c r="AE29" s="10">
-        <f>+AE27-AE28</f>
-        <v>1.0590000000000002</v>
-      </c>
-      <c r="AF29" s="10">
-        <f>+AF27-AF28</f>
-        <v>8.1870000000000012</v>
-      </c>
-      <c r="AG29" s="10">
-        <f>+AG27-AG28</f>
-        <v>13.934000000000001</v>
-      </c>
-      <c r="AH29" s="10">
-        <f>+AH27-AH28</f>
-        <v>22.475999999999999</v>
-      </c>
-      <c r="AI29" s="10">
-        <f>+AI27*0.7</f>
-        <v>57.287089999999999</v>
-      </c>
-      <c r="AJ29" s="10">
-        <f t="shared" ref="AJ29:AS29" si="16">+AJ27*0.7</f>
-        <v>108.84547099999999</v>
-      </c>
-      <c r="AK29" s="10">
-        <f t="shared" si="16"/>
-        <v>206.80639489999999</v>
-      </c>
-      <c r="AL29" s="10">
-        <f t="shared" si="16"/>
-        <v>392.93215031</v>
-      </c>
-      <c r="AM29" s="10">
-        <f t="shared" si="16"/>
-        <v>746.57108558899995</v>
-      </c>
-      <c r="AN29" s="10">
-        <f t="shared" si="16"/>
-        <v>821.22819414790001</v>
-      </c>
-      <c r="AO29" s="10">
-        <f t="shared" si="16"/>
-        <v>903.35101356269001</v>
-      </c>
-      <c r="AP29" s="10">
-        <f t="shared" si="16"/>
-        <v>993.68611491895911</v>
-      </c>
-      <c r="AQ29" s="10">
-        <f t="shared" si="16"/>
-        <v>1093.0547264108552</v>
-      </c>
-      <c r="AR29" s="10">
-        <f t="shared" si="16"/>
-        <v>1202.360199051941</v>
-      </c>
-      <c r="AS29" s="10">
-        <f t="shared" si="16"/>
-        <v>1322.5962189571351</v>
-      </c>
-    </row>
-    <row r="30" spans="2:110" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11">
-        <v>7.3380000000000001</v>
-      </c>
-      <c r="H30" s="11">
-        <v>9.6530000000000005</v>
-      </c>
-      <c r="I30" s="11">
-        <v>13.292</v>
-      </c>
-      <c r="J30" s="11">
-        <f>43.978-I30-H30-G30</f>
-        <v>13.695</v>
-      </c>
-      <c r="K30" s="11">
-        <v>16.233000000000001</v>
-      </c>
-      <c r="L30" s="11">
-        <v>19.869</v>
-      </c>
-      <c r="M30" s="11">
-        <v>24.599</v>
-      </c>
-      <c r="N30" s="11">
-        <f>+AG30-M30-L30-K30</f>
-        <v>31.619999999999994</v>
-      </c>
-      <c r="O30" s="11">
-        <v>32.368000000000002</v>
-      </c>
-      <c r="P30" s="11">
-        <v>31.204000000000001</v>
-      </c>
-      <c r="Q30" s="11">
-        <v>33.177999999999997</v>
-      </c>
-      <c r="R30" s="11">
-        <v>40.076999999999998</v>
-      </c>
-      <c r="S30" s="11">
-        <v>39.953000000000003</v>
-      </c>
-      <c r="T30" s="10">
-        <v>103.35899999999999</v>
-      </c>
-      <c r="U30" s="10">
-        <f t="shared" ref="U30:V32" si="17">+Q30</f>
-        <v>33.177999999999997</v>
-      </c>
-      <c r="V30" s="10">
-        <f t="shared" si="17"/>
-        <v>40.076999999999998</v>
-      </c>
-      <c r="AD30" s="10">
-        <v>10.157</v>
-      </c>
-      <c r="AE30" s="10">
-        <v>20.228000000000002</v>
-      </c>
-      <c r="AF30" s="10">
-        <v>43.978000000000002</v>
-      </c>
-      <c r="AG30" s="10">
-        <v>92.320999999999998</v>
-      </c>
-      <c r="AH30" s="10">
-        <f t="shared" ref="AH30:AH32" si="18">SUM(O30:R30)</f>
-        <v>136.827</v>
-      </c>
-      <c r="AI30" s="10">
-        <f>+AH30*1.05</f>
-        <v>143.66835</v>
-      </c>
-      <c r="AJ30" s="10">
-        <f t="shared" ref="AJ30:AS30" si="19">+AI30*1.05</f>
-        <v>150.85176750000002</v>
-      </c>
-      <c r="AK30" s="10">
-        <f t="shared" si="19"/>
-        <v>158.39435587500003</v>
-      </c>
-      <c r="AL30" s="10">
-        <f t="shared" si="19"/>
-        <v>166.31407366875004</v>
-      </c>
-      <c r="AM30" s="10">
-        <f t="shared" si="19"/>
-        <v>174.62977735218755</v>
-      </c>
-      <c r="AN30" s="10">
-        <f t="shared" si="19"/>
-        <v>183.36126621979693</v>
-      </c>
-      <c r="AO30" s="10">
-        <f t="shared" si="19"/>
-        <v>192.52932953078678</v>
-      </c>
-      <c r="AP30" s="10">
-        <f t="shared" si="19"/>
-        <v>202.15579600732613</v>
-      </c>
-      <c r="AQ30" s="10">
-        <f t="shared" si="19"/>
-        <v>212.26358580769244</v>
-      </c>
-      <c r="AR30" s="10">
-        <f t="shared" si="19"/>
-        <v>222.87676509807707</v>
-      </c>
-      <c r="AS30" s="10">
-        <f t="shared" si="19"/>
-        <v>234.02060335298094</v>
-      </c>
-    </row>
     <row r="31" spans="2:110" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11">
-        <v>1.871</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="H31" s="11">
-        <v>2.1320000000000001</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="I31" s="11">
-        <v>1.9690000000000001</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="J31" s="11">
-        <f>8.385-I31-H31-G31</f>
-        <v>2.4129999999999989</v>
+        <f>2.944-I31-H31-G31</f>
+        <v>0.90099999999999991</v>
       </c>
       <c r="K31" s="11">
-        <v>2.6669999999999998</v>
+        <v>1.036</v>
       </c>
       <c r="L31" s="11">
-        <v>3.5750000000000002</v>
+        <v>1.901</v>
       </c>
       <c r="M31" s="11">
-        <v>5.0469999999999997</v>
+        <v>2.008</v>
       </c>
       <c r="N31" s="11">
         <f>+AG31-M31-L31-K31</f>
-        <v>6.9809999999999999</v>
+        <v>3.1630000000000007</v>
       </c>
       <c r="O31" s="11">
-        <v>6.7009999999999996</v>
+        <v>3.4140000000000001</v>
       </c>
       <c r="P31" s="11">
-        <v>6.1369999999999996</v>
+        <v>5.6230000000000002</v>
       </c>
       <c r="Q31" s="11">
-        <v>6.63</v>
+        <v>6.5149999999999997</v>
       </c>
       <c r="R31" s="11">
-        <v>8.9269999999999996</v>
+        <v>5.0449999999999999</v>
       </c>
       <c r="S31" s="11">
-        <v>8.61</v>
+        <v>4.3150000000000004</v>
       </c>
       <c r="T31" s="10">
-        <v>10.877000000000001</v>
+        <v>8.327</v>
       </c>
       <c r="U31" s="10">
-        <f t="shared" si="17"/>
-        <v>6.63</v>
+        <v>21.253</v>
       </c>
       <c r="V31" s="10">
-        <f t="shared" si="17"/>
-        <v>8.9269999999999996</v>
+        <f>+V30-V32</f>
+        <v>13.5</v>
       </c>
       <c r="AD31" s="10">
-        <v>0.48599999999999999</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="AE31" s="10">
-        <v>3.2330000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="AF31" s="10">
-        <v>8.3849999999999998</v>
+        <v>2.944</v>
       </c>
       <c r="AG31" s="10">
-        <v>18.27</v>
+        <v>8.1080000000000005</v>
       </c>
       <c r="AH31" s="10">
-        <f t="shared" si="18"/>
-        <v>28.395</v>
+        <f>SUM(O31:R31)</f>
+        <v>20.597000000000001</v>
       </c>
       <c r="AI31" s="10">
-        <f t="shared" ref="AI31:AS31" si="20">+AH31*1.05</f>
-        <v>29.81475</v>
+        <f>+AI30-AI32</f>
+        <v>24.551610000000004</v>
       </c>
       <c r="AJ31" s="10">
-        <f t="shared" si="20"/>
-        <v>31.305487500000002</v>
+        <f t="shared" ref="AJ31:AS31" si="14">+AJ30-AJ32</f>
+        <v>46.648059000000003</v>
       </c>
       <c r="AK31" s="10">
-        <f t="shared" si="20"/>
-        <v>32.870761875000007</v>
+        <f t="shared" si="14"/>
+        <v>88.631312100000002</v>
       </c>
       <c r="AL31" s="10">
-        <f t="shared" si="20"/>
-        <v>34.514299968750009</v>
+        <f t="shared" si="14"/>
+        <v>168.39949299</v>
       </c>
       <c r="AM31" s="10">
-        <f t="shared" si="20"/>
-        <v>36.240014967187513</v>
+        <f t="shared" si="14"/>
+        <v>319.95903668100004</v>
       </c>
       <c r="AN31" s="10">
-        <f t="shared" si="20"/>
-        <v>38.052015715546887</v>
+        <f t="shared" si="14"/>
+        <v>351.95494034910007</v>
       </c>
       <c r="AO31" s="10">
-        <f t="shared" si="20"/>
-        <v>39.954616501324232</v>
+        <f t="shared" si="14"/>
+        <v>387.15043438401017</v>
       </c>
       <c r="AP31" s="10">
-        <f t="shared" si="20"/>
-        <v>41.952347326390445</v>
+        <f t="shared" si="14"/>
+        <v>425.86547782241121</v>
       </c>
       <c r="AQ31" s="10">
-        <f t="shared" si="20"/>
-        <v>44.04996469270997</v>
+        <f t="shared" si="14"/>
+        <v>468.45202560465236</v>
       </c>
       <c r="AR31" s="10">
-        <f t="shared" si="20"/>
-        <v>46.252462927345469</v>
+        <f t="shared" si="14"/>
+        <v>515.29722816511753</v>
       </c>
       <c r="AS31" s="10">
-        <f t="shared" si="20"/>
-        <v>48.565086073712742</v>
+        <f t="shared" si="14"/>
+        <v>566.82695098162935</v>
       </c>
     </row>
     <row r="32" spans="2:110" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11">
-        <v>9.1940000000000008</v>
+        <f>+G30-G31</f>
+        <v>1.3850000000000002</v>
       </c>
       <c r="H32" s="11">
-        <v>7.5579999999999998</v>
+        <f>+H30-H31</f>
+        <v>1.8660000000000001</v>
       </c>
       <c r="I32" s="11">
-        <v>10.148999999999999</v>
+        <f t="shared" ref="I32:Q32" si="15">+I30-I31</f>
+        <v>2.0299999999999998</v>
       </c>
       <c r="J32" s="11">
-        <f>35.966-I32-H32-G32</f>
-        <v>9.0649999999999995</v>
+        <f t="shared" si="15"/>
+        <v>2.899</v>
       </c>
       <c r="K32" s="11">
-        <v>10.581</v>
+        <f t="shared" si="15"/>
+        <v>3.2639999999999998</v>
       </c>
       <c r="L32" s="11">
-        <v>10.93</v>
+        <f t="shared" si="15"/>
+        <v>3.5990000000000002</v>
       </c>
       <c r="M32" s="11">
-        <v>13.927</v>
+        <f t="shared" si="15"/>
+        <v>4.1280000000000001</v>
       </c>
       <c r="N32" s="11">
-        <f>+AG32-M32-L32-K32</f>
-        <v>15.284000000000002</v>
+        <f t="shared" si="15"/>
+        <v>2.9430000000000018</v>
       </c>
       <c r="O32" s="11">
-        <v>14.02</v>
+        <f t="shared" si="15"/>
+        <v>4.1679999999999993</v>
       </c>
       <c r="P32" s="11">
-        <v>14.321999999999999</v>
+        <f t="shared" si="15"/>
+        <v>5.758</v>
       </c>
       <c r="Q32" s="11">
-        <v>14.321999999999999</v>
+        <f t="shared" si="15"/>
+        <v>5.8850000000000007</v>
       </c>
       <c r="R32" s="11">
-        <v>29.66</v>
+        <f>+R30-R31</f>
+        <v>6.6650000000000009</v>
       </c>
       <c r="S32" s="11">
-        <v>23.806000000000001</v>
+        <f>+S30-S31</f>
+        <v>3.2514999999999992</v>
       </c>
       <c r="T32" s="10">
-        <v>48.106999999999999</v>
+        <f>+T30-T31</f>
+        <v>12.372999999999999</v>
       </c>
       <c r="U32" s="10">
-        <f t="shared" si="17"/>
-        <v>14.321999999999999</v>
+        <f>+U30-U31</f>
+        <v>18.613</v>
       </c>
       <c r="V32" s="10">
-        <f t="shared" si="17"/>
-        <v>29.66</v>
+        <f>+V30*0.5</f>
+        <v>13.5</v>
       </c>
       <c r="AD32" s="10">
-        <v>3.5470000000000002</v>
+        <f>+AD30-AD31</f>
+        <v>-0.14299999999999999</v>
       </c>
       <c r="AE32" s="10">
-        <v>13.737</v>
+        <f>+AE30-AE31</f>
+        <v>1.0590000000000002</v>
       </c>
       <c r="AF32" s="10">
-        <v>35.966000000000001</v>
+        <f>+AF30-AF31</f>
+        <v>8.1870000000000012</v>
       </c>
       <c r="AG32" s="10">
-        <v>50.722000000000001</v>
+        <f>+AG30-AG31</f>
+        <v>13.934000000000001</v>
       </c>
       <c r="AH32" s="10">
-        <f t="shared" si="18"/>
-        <v>72.323999999999998</v>
+        <f>+AH30-AH31</f>
+        <v>22.475999999999999</v>
       </c>
       <c r="AI32" s="10">
-        <f t="shared" ref="AI32:AS32" si="21">+AH32*1.05</f>
-        <v>75.940200000000004</v>
+        <f>+AI30*0.7</f>
+        <v>57.287089999999999</v>
       </c>
       <c r="AJ32" s="10">
-        <f t="shared" si="21"/>
-        <v>79.737210000000005</v>
+        <f t="shared" ref="AJ32:AS32" si="16">+AJ30*0.7</f>
+        <v>108.84547099999999</v>
       </c>
       <c r="AK32" s="10">
-        <f t="shared" si="21"/>
-        <v>83.72407050000001</v>
+        <f t="shared" si="16"/>
+        <v>206.80639489999999</v>
       </c>
       <c r="AL32" s="10">
-        <f t="shared" si="21"/>
-        <v>87.910274025000021</v>
+        <f t="shared" si="16"/>
+        <v>392.93215031</v>
       </c>
       <c r="AM32" s="10">
-        <f t="shared" si="21"/>
-        <v>92.305787726250031</v>
+        <f t="shared" si="16"/>
+        <v>746.57108558899995</v>
       </c>
       <c r="AN32" s="10">
-        <f t="shared" si="21"/>
-        <v>96.921077112562543</v>
+        <f t="shared" si="16"/>
+        <v>821.22819414790001</v>
       </c>
       <c r="AO32" s="10">
-        <f t="shared" si="21"/>
-        <v>101.76713096819067</v>
+        <f t="shared" si="16"/>
+        <v>903.35101356269001</v>
       </c>
       <c r="AP32" s="10">
-        <f t="shared" si="21"/>
-        <v>106.85548751660021</v>
+        <f t="shared" si="16"/>
+        <v>993.68611491895911</v>
       </c>
       <c r="AQ32" s="10">
-        <f t="shared" si="21"/>
-        <v>112.19826189243022</v>
+        <f t="shared" si="16"/>
+        <v>1093.0547264108552</v>
       </c>
       <c r="AR32" s="10">
-        <f t="shared" si="21"/>
-        <v>117.80817498705174</v>
+        <f t="shared" si="16"/>
+        <v>1202.360199051941</v>
       </c>
       <c r="AS32" s="10">
-        <f t="shared" si="21"/>
-        <v>123.69858373640433</v>
+        <f t="shared" si="16"/>
+        <v>1322.5962189571351</v>
       </c>
     </row>
     <row r="33" spans="2:82" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11">
-        <f t="shared" ref="G33:J33" si="22">SUM(G30:G32)</f>
-        <v>18.402999999999999</v>
+        <v>7.3380000000000001</v>
       </c>
       <c r="H33" s="11">
-        <f t="shared" si="22"/>
-        <v>19.343</v>
+        <v>9.6530000000000005</v>
       </c>
       <c r="I33" s="11">
-        <f t="shared" si="22"/>
-        <v>25.409999999999997</v>
+        <v>13.292</v>
       </c>
       <c r="J33" s="11">
-        <f t="shared" si="22"/>
-        <v>25.173000000000002</v>
+        <f>43.978-I33-H33-G33</f>
+        <v>13.695</v>
       </c>
       <c r="K33" s="11">
-        <f t="shared" ref="K33" si="23">SUM(K30:K32)</f>
-        <v>29.480999999999998</v>
+        <v>16.233000000000001</v>
       </c>
       <c r="L33" s="11">
-        <f t="shared" ref="L33" si="24">SUM(L30:L32)</f>
-        <v>34.373999999999995</v>
+        <v>19.869</v>
       </c>
       <c r="M33" s="11">
-        <f t="shared" ref="M33:O33" si="25">SUM(M30:M32)</f>
-        <v>43.573</v>
+        <v>24.599</v>
       </c>
       <c r="N33" s="11">
-        <f t="shared" si="25"/>
-        <v>53.884999999999991</v>
+        <f>+AG33-M33-L33-K33</f>
+        <v>31.619999999999994</v>
       </c>
       <c r="O33" s="11">
-        <f t="shared" si="25"/>
-        <v>53.088999999999999</v>
+        <v>32.368000000000002</v>
       </c>
       <c r="P33" s="11">
-        <f>SUM(P30:P32)</f>
-        <v>51.662999999999997</v>
+        <v>31.204000000000001</v>
       </c>
       <c r="Q33" s="11">
-        <f>SUM(Q30:Q32)</f>
-        <v>54.129999999999995</v>
+        <v>33.177999999999997</v>
       </c>
       <c r="R33" s="11">
-        <f>SUM(R30:R32)</f>
-        <v>78.664000000000001</v>
+        <v>40.076999999999998</v>
       </c>
       <c r="S33" s="11">
-        <f>SUM(S30:S32)</f>
-        <v>72.369</v>
-      </c>
-      <c r="T33" s="11">
-        <f t="shared" ref="T33:V33" si="26">SUM(T30:T32)</f>
-        <v>162.34299999999999</v>
-      </c>
-      <c r="U33" s="11">
-        <f t="shared" si="26"/>
-        <v>54.129999999999995</v>
-      </c>
-      <c r="V33" s="11">
-        <f t="shared" si="26"/>
-        <v>78.664000000000001</v>
-      </c>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11">
-        <f t="shared" ref="AD33:AE33" si="27">SUM(AD30:AD32)</f>
-        <v>14.190000000000001</v>
-      </c>
-      <c r="AE33" s="11">
-        <f t="shared" si="27"/>
-        <v>37.198</v>
-      </c>
-      <c r="AF33" s="11">
-        <f t="shared" ref="AF33:AH33" si="28">SUM(AF30:AF32)</f>
-        <v>88.329000000000008</v>
-      </c>
-      <c r="AG33" s="11">
-        <f t="shared" si="28"/>
-        <v>161.31299999999999</v>
-      </c>
-      <c r="AH33" s="11">
-        <f t="shared" si="28"/>
-        <v>237.54599999999999</v>
-      </c>
-      <c r="AI33" s="11">
-        <f t="shared" ref="AI33" si="29">SUM(AI30:AI32)</f>
-        <v>249.42330000000001</v>
-      </c>
-      <c r="AJ33" s="11">
-        <f t="shared" ref="AJ33" si="30">SUM(AJ30:AJ32)</f>
-        <v>261.89446500000003</v>
-      </c>
-      <c r="AK33" s="11">
-        <f t="shared" ref="AK33" si="31">SUM(AK30:AK32)</f>
-        <v>274.98918825000004</v>
-      </c>
-      <c r="AL33" s="11">
-        <f t="shared" ref="AL33" si="32">SUM(AL30:AL32)</f>
-        <v>288.73864766250006</v>
-      </c>
-      <c r="AM33" s="11">
-        <f t="shared" ref="AM33" si="33">SUM(AM30:AM32)</f>
-        <v>303.17558004562511</v>
-      </c>
-      <c r="AN33" s="11">
-        <f t="shared" ref="AN33" si="34">SUM(AN30:AN32)</f>
-        <v>318.33435904790639</v>
-      </c>
-      <c r="AO33" s="11">
-        <f t="shared" ref="AO33" si="35">SUM(AO30:AO32)</f>
-        <v>334.25107700030168</v>
-      </c>
-      <c r="AP33" s="11">
-        <f t="shared" ref="AP33" si="36">SUM(AP30:AP32)</f>
-        <v>350.9636308503168</v>
-      </c>
-      <c r="AQ33" s="11">
-        <f t="shared" ref="AQ33" si="37">SUM(AQ30:AQ32)</f>
-        <v>368.51181239283267</v>
-      </c>
-      <c r="AR33" s="11">
-        <f t="shared" ref="AR33" si="38">SUM(AR30:AR32)</f>
-        <v>386.93740301247431</v>
-      </c>
-      <c r="AS33" s="11">
-        <f t="shared" ref="AS33" si="39">SUM(AS30:AS32)</f>
-        <v>406.28427316309802</v>
+        <v>39.953000000000003</v>
+      </c>
+      <c r="T33" s="10">
+        <v>103.35899999999999</v>
+      </c>
+      <c r="U33" s="10">
+        <v>66.298000000000002</v>
+      </c>
+      <c r="V33" s="10">
+        <f t="shared" ref="V33:V35" si="17">+R33</f>
+        <v>40.076999999999998</v>
+      </c>
+      <c r="AD33" s="10">
+        <v>10.157</v>
+      </c>
+      <c r="AE33" s="10">
+        <v>20.228000000000002</v>
+      </c>
+      <c r="AF33" s="10">
+        <v>43.978000000000002</v>
+      </c>
+      <c r="AG33" s="10">
+        <v>92.320999999999998</v>
+      </c>
+      <c r="AH33" s="10">
+        <f t="shared" ref="AH33:AH35" si="18">SUM(O33:R33)</f>
+        <v>136.827</v>
+      </c>
+      <c r="AI33" s="10">
+        <f>+AH33*1.05</f>
+        <v>143.66835</v>
+      </c>
+      <c r="AJ33" s="10">
+        <f t="shared" ref="AJ33:AS33" si="19">+AI33*1.05</f>
+        <v>150.85176750000002</v>
+      </c>
+      <c r="AK33" s="10">
+        <f t="shared" si="19"/>
+        <v>158.39435587500003</v>
+      </c>
+      <c r="AL33" s="10">
+        <f t="shared" si="19"/>
+        <v>166.31407366875004</v>
+      </c>
+      <c r="AM33" s="10">
+        <f t="shared" si="19"/>
+        <v>174.62977735218755</v>
+      </c>
+      <c r="AN33" s="10">
+        <f t="shared" si="19"/>
+        <v>183.36126621979693</v>
+      </c>
+      <c r="AO33" s="10">
+        <f t="shared" si="19"/>
+        <v>192.52932953078678</v>
+      </c>
+      <c r="AP33" s="10">
+        <f t="shared" si="19"/>
+        <v>202.15579600732613</v>
+      </c>
+      <c r="AQ33" s="10">
+        <f t="shared" si="19"/>
+        <v>212.26358580769244</v>
+      </c>
+      <c r="AR33" s="10">
+        <f t="shared" si="19"/>
+        <v>222.87676509807707</v>
+      </c>
+      <c r="AS33" s="10">
+        <f t="shared" si="19"/>
+        <v>234.02060335298094</v>
       </c>
     </row>
     <row r="34" spans="2:82" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11">
-        <f t="shared" ref="G34:J34" si="40">+G29-G33</f>
-        <v>-17.017999999999997</v>
+        <v>1.871</v>
       </c>
       <c r="H34" s="11">
-        <f t="shared" si="40"/>
-        <v>-17.477</v>
+        <v>2.1320000000000001</v>
       </c>
       <c r="I34" s="11">
-        <f t="shared" si="40"/>
-        <v>-23.379999999999995</v>
+        <v>1.9690000000000001</v>
       </c>
       <c r="J34" s="11">
-        <f t="shared" si="40"/>
-        <v>-22.274000000000001</v>
+        <f>8.385-I34-H34-G34</f>
+        <v>2.4129999999999989</v>
       </c>
       <c r="K34" s="11">
-        <f t="shared" ref="K34" si="41">+K29-K33</f>
-        <v>-26.216999999999999</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="L34" s="11">
-        <f t="shared" ref="L34" si="42">+L29-L33</f>
-        <v>-30.774999999999995</v>
+        <v>3.5750000000000002</v>
       </c>
       <c r="M34" s="11">
-        <f t="shared" ref="M34:P34" si="43">+M29-M33</f>
-        <v>-39.445</v>
+        <v>5.0469999999999997</v>
       </c>
       <c r="N34" s="11">
-        <f t="shared" si="43"/>
-        <v>-50.941999999999986</v>
+        <f>+AG34-M34-L34-K34</f>
+        <v>6.9809999999999999</v>
       </c>
       <c r="O34" s="11">
-        <f t="shared" si="43"/>
-        <v>-48.920999999999999</v>
+        <v>6.7009999999999996</v>
       </c>
       <c r="P34" s="11">
-        <f t="shared" si="43"/>
-        <v>-45.904999999999994</v>
+        <v>6.1369999999999996</v>
       </c>
       <c r="Q34" s="11">
-        <f>+Q29-Q33</f>
-        <v>-48.244999999999997</v>
+        <v>6.63</v>
       </c>
       <c r="R34" s="11">
-        <f>+R29-R33</f>
-        <v>-71.998999999999995</v>
+        <v>8.9269999999999996</v>
       </c>
       <c r="S34" s="11">
-        <f>+S29-S33</f>
-        <v>-69.117500000000007</v>
-      </c>
-      <c r="T34" s="11">
-        <f t="shared" ref="T34:V34" si="44">+T29-T33</f>
-        <v>-149.97</v>
-      </c>
-      <c r="U34" s="11">
-        <f t="shared" si="44"/>
-        <v>-41.629999999999995</v>
-      </c>
-      <c r="V34" s="11">
-        <f t="shared" si="44"/>
-        <v>-65.164000000000001</v>
-      </c>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11">
-        <f t="shared" ref="AD34:AE34" si="45">+AD29-AD33</f>
-        <v>-14.333000000000002</v>
-      </c>
-      <c r="AE34" s="11">
-        <f t="shared" si="45"/>
-        <v>-36.139000000000003</v>
-      </c>
-      <c r="AF34" s="11">
-        <f t="shared" ref="AF34:AH34" si="46">+AF29-AF33</f>
-        <v>-80.14200000000001</v>
-      </c>
-      <c r="AG34" s="11">
-        <f t="shared" si="46"/>
-        <v>-147.37899999999999</v>
-      </c>
-      <c r="AH34" s="11">
-        <f t="shared" si="46"/>
-        <v>-215.07</v>
-      </c>
-      <c r="AI34" s="11">
-        <f t="shared" ref="AI34" si="47">+AI29-AI33</f>
-        <v>-192.13621000000001</v>
-      </c>
-      <c r="AJ34" s="11">
-        <f t="shared" ref="AJ34" si="48">+AJ29-AJ33</f>
-        <v>-153.04899400000005</v>
-      </c>
-      <c r="AK34" s="11">
-        <f t="shared" ref="AK34" si="49">+AK29-AK33</f>
-        <v>-68.182793350000054</v>
-      </c>
-      <c r="AL34" s="11">
-        <f t="shared" ref="AL34" si="50">+AL29-AL33</f>
-        <v>104.19350264749994</v>
-      </c>
-      <c r="AM34" s="11">
-        <f t="shared" ref="AM34" si="51">+AM29-AM33</f>
-        <v>443.39550554337484</v>
-      </c>
-      <c r="AN34" s="11">
-        <f t="shared" ref="AN34" si="52">+AN29-AN33</f>
-        <v>502.89383509999362</v>
-      </c>
-      <c r="AO34" s="11">
-        <f t="shared" ref="AO34" si="53">+AO29-AO33</f>
-        <v>569.09993656238839</v>
-      </c>
-      <c r="AP34" s="11">
-        <f t="shared" ref="AP34" si="54">+AP29-AP33</f>
-        <v>642.7224840686423</v>
-      </c>
-      <c r="AQ34" s="11">
-        <f t="shared" ref="AQ34" si="55">+AQ29-AQ33</f>
-        <v>724.54291401802254</v>
-      </c>
-      <c r="AR34" s="11">
-        <f t="shared" ref="AR34" si="56">+AR29-AR33</f>
-        <v>815.42279603946668</v>
-      </c>
-      <c r="AS34" s="11">
-        <f t="shared" ref="AS34" si="57">+AS29-AS33</f>
-        <v>916.311945794037</v>
+        <v>8.61</v>
+      </c>
+      <c r="T34" s="10">
+        <v>10.877000000000001</v>
+      </c>
+      <c r="U34" s="10">
+        <v>14.441000000000001</v>
+      </c>
+      <c r="V34" s="10">
+        <f t="shared" si="17"/>
+        <v>8.9269999999999996</v>
+      </c>
+      <c r="AD34" s="10">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="AE34" s="10">
+        <v>3.2330000000000001</v>
+      </c>
+      <c r="AF34" s="10">
+        <v>8.3849999999999998</v>
+      </c>
+      <c r="AG34" s="10">
+        <v>18.27</v>
+      </c>
+      <c r="AH34" s="10">
+        <f t="shared" si="18"/>
+        <v>28.395</v>
+      </c>
+      <c r="AI34" s="10">
+        <f t="shared" ref="AI34:AS34" si="20">+AH34*1.05</f>
+        <v>29.81475</v>
+      </c>
+      <c r="AJ34" s="10">
+        <f t="shared" si="20"/>
+        <v>31.305487500000002</v>
+      </c>
+      <c r="AK34" s="10">
+        <f t="shared" si="20"/>
+        <v>32.870761875000007</v>
+      </c>
+      <c r="AL34" s="10">
+        <f t="shared" si="20"/>
+        <v>34.514299968750009</v>
+      </c>
+      <c r="AM34" s="10">
+        <f t="shared" si="20"/>
+        <v>36.240014967187513</v>
+      </c>
+      <c r="AN34" s="10">
+        <f t="shared" si="20"/>
+        <v>38.052015715546887</v>
+      </c>
+      <c r="AO34" s="10">
+        <f t="shared" si="20"/>
+        <v>39.954616501324232</v>
+      </c>
+      <c r="AP34" s="10">
+        <f t="shared" si="20"/>
+        <v>41.952347326390445</v>
+      </c>
+      <c r="AQ34" s="10">
+        <f t="shared" si="20"/>
+        <v>44.04996469270997</v>
+      </c>
+      <c r="AR34" s="10">
+        <f t="shared" si="20"/>
+        <v>46.252462927345469</v>
+      </c>
+      <c r="AS34" s="10">
+        <f t="shared" si="20"/>
+        <v>48.565086073712742</v>
       </c>
     </row>
     <row r="35" spans="2:82" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11">
-        <v>0.60799999999999998</v>
+        <v>9.1940000000000008</v>
       </c>
       <c r="H35" s="11">
-        <v>1.2589999999999999</v>
+        <v>7.5579999999999998</v>
       </c>
       <c r="I35" s="11">
-        <v>2.0590000000000002</v>
+        <v>10.148999999999999</v>
       </c>
       <c r="J35" s="11">
-        <f>7.093-I35-H35-G35</f>
-        <v>3.1669999999999998</v>
+        <f>35.966-I35-H35-G35</f>
+        <v>9.0649999999999995</v>
       </c>
       <c r="K35" s="11">
-        <v>4.2309999999999999</v>
+        <v>10.581</v>
       </c>
       <c r="L35" s="11">
-        <v>4.8769999999999998</v>
+        <v>10.93</v>
       </c>
       <c r="M35" s="11">
-        <v>5.0069999999999997</v>
+        <v>13.927</v>
       </c>
       <c r="N35" s="11">
-        <f>5.207-0.235</f>
-        <v>4.9719999999999995</v>
+        <f>+AG35-M35-L35-K35</f>
+        <v>15.284000000000002</v>
       </c>
       <c r="O35" s="11">
-        <v>4.7990000000000004</v>
+        <v>14.02</v>
       </c>
       <c r="P35" s="11">
-        <v>4.8010000000000002</v>
+        <v>14.321999999999999</v>
       </c>
       <c r="Q35" s="11">
-        <f>4.508+0.015</f>
-        <v>4.5229999999999997</v>
+        <v>14.321999999999999</v>
       </c>
       <c r="R35" s="11">
-        <f>4.141-0.111</f>
-        <v>4.03</v>
+        <v>29.66</v>
       </c>
       <c r="S35" s="11">
-        <v>4.8940000000000001</v>
+        <v>23.806000000000001</v>
       </c>
       <c r="T35" s="10">
-        <v>7.1379999999999999</v>
+        <v>48.106999999999999</v>
       </c>
       <c r="U35" s="10">
-        <f>+T35</f>
-        <v>7.1379999999999999</v>
+        <v>82.504999999999995</v>
       </c>
       <c r="V35" s="10">
-        <f>+U35</f>
-        <v>7.1379999999999999</v>
+        <f t="shared" si="17"/>
+        <v>29.66</v>
+      </c>
+      <c r="AD35" s="10">
+        <v>3.5470000000000002</v>
+      </c>
+      <c r="AE35" s="10">
+        <v>13.737</v>
+      </c>
+      <c r="AF35" s="10">
+        <v>35.966000000000001</v>
+      </c>
+      <c r="AG35" s="10">
+        <v>50.722000000000001</v>
       </c>
       <c r="AH35" s="10">
-        <f t="shared" ref="AH35" si="58">SUM(O35:R35)</f>
-        <v>18.153000000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="2:82" x14ac:dyDescent="0.25">
+        <f t="shared" si="18"/>
+        <v>72.323999999999998</v>
+      </c>
+      <c r="AI35" s="10">
+        <f t="shared" ref="AI35:AS35" si="21">+AH35*1.05</f>
+        <v>75.940200000000004</v>
+      </c>
+      <c r="AJ35" s="10">
+        <f t="shared" si="21"/>
+        <v>79.737210000000005</v>
+      </c>
+      <c r="AK35" s="10">
+        <f t="shared" si="21"/>
+        <v>83.72407050000001</v>
+      </c>
+      <c r="AL35" s="10">
+        <f t="shared" si="21"/>
+        <v>87.910274025000021</v>
+      </c>
+      <c r="AM35" s="10">
+        <f t="shared" si="21"/>
+        <v>92.305787726250031</v>
+      </c>
+      <c r="AN35" s="10">
+        <f t="shared" si="21"/>
+        <v>96.921077112562543</v>
+      </c>
+      <c r="AO35" s="10">
+        <f t="shared" si="21"/>
+        <v>101.76713096819067</v>
+      </c>
+      <c r="AP35" s="10">
+        <f t="shared" si="21"/>
+        <v>106.85548751660021</v>
+      </c>
+      <c r="AQ35" s="10">
+        <f t="shared" si="21"/>
+        <v>112.19826189243022</v>
+      </c>
+      <c r="AR35" s="10">
+        <f t="shared" si="21"/>
+        <v>117.80817498705174</v>
+      </c>
+      <c r="AS35" s="10">
+        <f t="shared" si="21"/>
+        <v>123.69858373640433</v>
+      </c>
+    </row>
+    <row r="36" spans="2:82" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>59</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="11">
-        <f t="shared" ref="G36:J36" si="59">+G34+G35</f>
-        <v>-16.409999999999997</v>
+        <f t="shared" ref="G36:J36" si="22">SUM(G33:G35)</f>
+        <v>18.402999999999999</v>
       </c>
       <c r="H36" s="11">
-        <f t="shared" si="59"/>
-        <v>-16.218</v>
+        <f t="shared" si="22"/>
+        <v>19.343</v>
       </c>
       <c r="I36" s="11">
-        <f t="shared" si="59"/>
-        <v>-21.320999999999994</v>
+        <f t="shared" si="22"/>
+        <v>25.409999999999997</v>
       </c>
       <c r="J36" s="11">
-        <f t="shared" si="59"/>
-        <v>-19.106999999999999</v>
+        <f t="shared" si="22"/>
+        <v>25.173000000000002</v>
       </c>
       <c r="K36" s="11">
-        <f t="shared" ref="K36:L36" si="60">+K34+K35</f>
-        <v>-21.985999999999997</v>
+        <f t="shared" ref="K36" si="23">SUM(K33:K35)</f>
+        <v>29.480999999999998</v>
       </c>
       <c r="L36" s="11">
-        <f t="shared" si="60"/>
-        <v>-25.897999999999996</v>
+        <f t="shared" ref="L36" si="24">SUM(L33:L35)</f>
+        <v>34.373999999999995</v>
       </c>
       <c r="M36" s="11">
-        <f>+M34+M35</f>
-        <v>-34.438000000000002</v>
+        <f t="shared" ref="M36:O36" si="25">SUM(M33:M35)</f>
+        <v>43.573</v>
       </c>
       <c r="N36" s="11">
-        <f t="shared" ref="N36:P36" si="61">+N34+N35</f>
-        <v>-45.969999999999985</v>
+        <f t="shared" si="25"/>
+        <v>53.884999999999991</v>
       </c>
       <c r="O36" s="11">
-        <f t="shared" si="61"/>
-        <v>-44.122</v>
+        <f t="shared" si="25"/>
+        <v>53.088999999999999</v>
       </c>
       <c r="P36" s="11">
-        <f t="shared" si="61"/>
-        <v>-41.103999999999992</v>
+        <f>SUM(P33:P35)</f>
+        <v>51.662999999999997</v>
       </c>
       <c r="Q36" s="11">
-        <f t="shared" ref="Q36:V36" si="62">+Q34+Q35</f>
-        <v>-43.721999999999994</v>
+        <f>SUM(Q33:Q35)</f>
+        <v>54.129999999999995</v>
       </c>
       <c r="R36" s="11">
-        <f t="shared" si="62"/>
-        <v>-67.968999999999994</v>
+        <f>SUM(R33:R35)</f>
+        <v>78.664000000000001</v>
       </c>
       <c r="S36" s="11">
-        <f t="shared" si="62"/>
-        <v>-64.223500000000001</v>
+        <f>SUM(S33:S35)</f>
+        <v>72.369</v>
       </c>
       <c r="T36" s="11">
-        <f t="shared" si="62"/>
-        <v>-142.83199999999999</v>
+        <f t="shared" ref="T36:V36" si="26">SUM(T33:T35)</f>
+        <v>162.34299999999999</v>
       </c>
       <c r="U36" s="11">
-        <f t="shared" si="62"/>
-        <v>-34.491999999999997</v>
+        <f t="shared" si="26"/>
+        <v>163.244</v>
       </c>
       <c r="V36" s="11">
-        <f t="shared" si="62"/>
-        <v>-58.026000000000003</v>
+        <f t="shared" si="26"/>
+        <v>78.664000000000001</v>
       </c>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
@@ -4905,988 +4650,1233 @@
       <c r="AB36" s="11"/>
       <c r="AC36" s="11"/>
       <c r="AD36" s="11">
-        <f t="shared" ref="AD36:AH36" si="63">+AD34+AD35</f>
-        <v>-14.333000000000002</v>
+        <f t="shared" ref="AD36:AE36" si="27">SUM(AD33:AD35)</f>
+        <v>14.190000000000001</v>
       </c>
       <c r="AE36" s="11">
-        <f t="shared" si="63"/>
-        <v>-36.139000000000003</v>
+        <f t="shared" si="27"/>
+        <v>37.198</v>
       </c>
       <c r="AF36" s="11">
-        <f t="shared" si="63"/>
-        <v>-80.14200000000001</v>
+        <f t="shared" ref="AF36:AH36" si="28">SUM(AF33:AF35)</f>
+        <v>88.329000000000008</v>
       </c>
       <c r="AG36" s="11">
-        <f t="shared" si="63"/>
-        <v>-147.37899999999999</v>
+        <f t="shared" si="28"/>
+        <v>161.31299999999999</v>
       </c>
       <c r="AH36" s="11">
-        <f t="shared" si="63"/>
-        <v>-196.917</v>
+        <f t="shared" si="28"/>
+        <v>237.54599999999999</v>
       </c>
       <c r="AI36" s="11">
-        <f t="shared" ref="AI36" si="64">+AI34+AI35</f>
-        <v>-192.13621000000001</v>
+        <f t="shared" ref="AI36" si="29">SUM(AI33:AI35)</f>
+        <v>249.42330000000001</v>
       </c>
       <c r="AJ36" s="11">
-        <f t="shared" ref="AJ36" si="65">+AJ34+AJ35</f>
-        <v>-153.04899400000005</v>
+        <f t="shared" ref="AJ36" si="30">SUM(AJ33:AJ35)</f>
+        <v>261.89446500000003</v>
       </c>
       <c r="AK36" s="11">
-        <f t="shared" ref="AK36" si="66">+AK34+AK35</f>
-        <v>-68.182793350000054</v>
+        <f t="shared" ref="AK36" si="31">SUM(AK33:AK35)</f>
+        <v>274.98918825000004</v>
       </c>
       <c r="AL36" s="11">
-        <f t="shared" ref="AL36" si="67">+AL34+AL35</f>
-        <v>104.19350264749994</v>
+        <f t="shared" ref="AL36" si="32">SUM(AL33:AL35)</f>
+        <v>288.73864766250006</v>
       </c>
       <c r="AM36" s="11">
-        <f t="shared" ref="AM36" si="68">+AM34+AM35</f>
-        <v>443.39550554337484</v>
+        <f t="shared" ref="AM36" si="33">SUM(AM33:AM35)</f>
+        <v>303.17558004562511</v>
       </c>
       <c r="AN36" s="11">
-        <f t="shared" ref="AN36" si="69">+AN34+AN35</f>
-        <v>502.89383509999362</v>
+        <f t="shared" ref="AN36" si="34">SUM(AN33:AN35)</f>
+        <v>318.33435904790639</v>
       </c>
       <c r="AO36" s="11">
-        <f t="shared" ref="AO36" si="70">+AO34+AO35</f>
-        <v>569.09993656238839</v>
+        <f t="shared" ref="AO36" si="35">SUM(AO33:AO35)</f>
+        <v>334.25107700030168</v>
       </c>
       <c r="AP36" s="11">
-        <f t="shared" ref="AP36" si="71">+AP34+AP35</f>
-        <v>642.7224840686423</v>
+        <f t="shared" ref="AP36" si="36">SUM(AP33:AP35)</f>
+        <v>350.9636308503168</v>
       </c>
       <c r="AQ36" s="11">
-        <f t="shared" ref="AQ36" si="72">+AQ34+AQ35</f>
-        <v>724.54291401802254</v>
+        <f t="shared" ref="AQ36" si="37">SUM(AQ33:AQ35)</f>
+        <v>368.51181239283267</v>
       </c>
       <c r="AR36" s="11">
-        <f t="shared" ref="AR36" si="73">+AR34+AR35</f>
-        <v>815.42279603946668</v>
+        <f t="shared" ref="AR36" si="38">SUM(AR33:AR35)</f>
+        <v>386.93740301247431</v>
       </c>
       <c r="AS36" s="11">
-        <f t="shared" ref="AS36" si="74">+AS34+AS35</f>
-        <v>916.311945794037</v>
+        <f t="shared" ref="AS36" si="39">SUM(AS33:AS35)</f>
+        <v>406.28427316309802</v>
       </c>
     </row>
     <row r="37" spans="2:82" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11">
-        <v>0</v>
+        <f t="shared" ref="G37:J37" si="40">+G32-G36</f>
+        <v>-17.017999999999997</v>
       </c>
       <c r="H37" s="11">
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>-17.477</v>
       </c>
       <c r="I37" s="11">
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>-23.379999999999995</v>
       </c>
       <c r="J37" s="11">
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>-22.274000000000001</v>
       </c>
       <c r="K37" s="11">
-        <v>0</v>
+        <f t="shared" ref="K37" si="41">+K32-K36</f>
+        <v>-26.216999999999999</v>
       </c>
       <c r="L37" s="11">
-        <v>0</v>
+        <f t="shared" ref="L37" si="42">+L32-L36</f>
+        <v>-30.774999999999995</v>
       </c>
       <c r="M37" s="11">
-        <v>0</v>
+        <f t="shared" ref="M37:P37" si="43">+M32-M36</f>
+        <v>-39.445</v>
       </c>
       <c r="N37" s="11">
-        <v>-8.9999999999999993E-3</v>
+        <f t="shared" si="43"/>
+        <v>-50.941999999999986</v>
       </c>
       <c r="O37" s="11">
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>-48.920999999999999</v>
       </c>
       <c r="P37" s="11">
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>-45.904999999999994</v>
       </c>
       <c r="Q37" s="11">
-        <v>0</v>
+        <f>+Q32-Q36</f>
+        <v>-48.244999999999997</v>
       </c>
       <c r="R37" s="11">
-        <v>0</v>
+        <f>+R32-R36</f>
+        <v>-71.998999999999995</v>
       </c>
       <c r="S37" s="11">
-        <v>0</v>
-      </c>
-      <c r="T37" s="10">
-        <v>0</v>
-      </c>
-      <c r="U37" s="10">
-        <v>0</v>
-      </c>
-      <c r="V37" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="10">
-        <f t="shared" ref="AH37" si="75">SUM(O37:R37)</f>
-        <v>0</v>
-      </c>
-      <c r="AL37" s="10">
-        <f>+AL36*0.1</f>
-        <v>10.419350264749994</v>
-      </c>
-      <c r="AM37" s="10">
-        <f t="shared" ref="AM37:AS37" si="76">+AM36*0.1</f>
-        <v>44.339550554337485</v>
-      </c>
-      <c r="AN37" s="10">
-        <f t="shared" si="76"/>
-        <v>50.289383509999368</v>
-      </c>
-      <c r="AO37" s="10">
-        <f t="shared" si="76"/>
-        <v>56.909993656238839</v>
-      </c>
-      <c r="AP37" s="10">
-        <f t="shared" si="76"/>
-        <v>64.272248406864236</v>
-      </c>
-      <c r="AQ37" s="10">
-        <f t="shared" si="76"/>
-        <v>72.454291401802251</v>
-      </c>
-      <c r="AR37" s="10">
-        <f t="shared" si="76"/>
-        <v>81.542279603946668</v>
-      </c>
-      <c r="AS37" s="10">
-        <f t="shared" si="76"/>
-        <v>91.631194579403711</v>
-      </c>
-    </row>
-    <row r="38" spans="2:82" x14ac:dyDescent="0.25">
+        <f>+S32-S36</f>
+        <v>-69.117500000000007</v>
+      </c>
+      <c r="T37" s="11">
+        <f t="shared" ref="T37:V37" si="44">+T32-T36</f>
+        <v>-149.97</v>
+      </c>
+      <c r="U37" s="11">
+        <f t="shared" si="44"/>
+        <v>-144.631</v>
+      </c>
+      <c r="V37" s="11">
+        <f t="shared" si="44"/>
+        <v>-65.164000000000001</v>
+      </c>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11">
+        <f t="shared" ref="AD37:AE37" si="45">+AD32-AD36</f>
+        <v>-14.333000000000002</v>
+      </c>
+      <c r="AE37" s="11">
+        <f t="shared" si="45"/>
+        <v>-36.139000000000003</v>
+      </c>
+      <c r="AF37" s="11">
+        <f t="shared" ref="AF37:AH37" si="46">+AF32-AF36</f>
+        <v>-80.14200000000001</v>
+      </c>
+      <c r="AG37" s="11">
+        <f t="shared" si="46"/>
+        <v>-147.37899999999999</v>
+      </c>
+      <c r="AH37" s="11">
+        <f t="shared" si="46"/>
+        <v>-215.07</v>
+      </c>
+      <c r="AI37" s="11">
+        <f t="shared" ref="AI37" si="47">+AI32-AI36</f>
+        <v>-192.13621000000001</v>
+      </c>
+      <c r="AJ37" s="11">
+        <f t="shared" ref="AJ37" si="48">+AJ32-AJ36</f>
+        <v>-153.04899400000005</v>
+      </c>
+      <c r="AK37" s="11">
+        <f t="shared" ref="AK37" si="49">+AK32-AK36</f>
+        <v>-68.182793350000054</v>
+      </c>
+      <c r="AL37" s="11">
+        <f t="shared" ref="AL37" si="50">+AL32-AL36</f>
+        <v>104.19350264749994</v>
+      </c>
+      <c r="AM37" s="11">
+        <f t="shared" ref="AM37" si="51">+AM32-AM36</f>
+        <v>443.39550554337484</v>
+      </c>
+      <c r="AN37" s="11">
+        <f t="shared" ref="AN37" si="52">+AN32-AN36</f>
+        <v>502.89383509999362</v>
+      </c>
+      <c r="AO37" s="11">
+        <f t="shared" ref="AO37" si="53">+AO32-AO36</f>
+        <v>569.09993656238839</v>
+      </c>
+      <c r="AP37" s="11">
+        <f t="shared" ref="AP37" si="54">+AP32-AP36</f>
+        <v>642.7224840686423</v>
+      </c>
+      <c r="AQ37" s="11">
+        <f t="shared" ref="AQ37" si="55">+AQ32-AQ36</f>
+        <v>724.54291401802254</v>
+      </c>
+      <c r="AR37" s="11">
+        <f t="shared" ref="AR37" si="56">+AR32-AR36</f>
+        <v>815.42279603946668</v>
+      </c>
+      <c r="AS37" s="11">
+        <f t="shared" ref="AS37" si="57">+AS32-AS36</f>
+        <v>916.311945794037</v>
+      </c>
+    </row>
+    <row r="38" spans="2:82" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>61</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="11">
-        <f t="shared" ref="G38:J38" si="77">+G36-G37</f>
-        <v>-16.409999999999997</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="H38" s="11">
-        <f t="shared" si="77"/>
-        <v>-16.218</v>
+        <v>1.2589999999999999</v>
       </c>
       <c r="I38" s="11">
-        <f t="shared" si="77"/>
-        <v>-21.320999999999994</v>
+        <v>2.0590000000000002</v>
       </c>
       <c r="J38" s="11">
-        <f t="shared" si="77"/>
-        <v>-19.106999999999999</v>
+        <f>7.093-I38-H38-G38</f>
+        <v>3.1669999999999998</v>
       </c>
       <c r="K38" s="11">
-        <f>+K36-K37</f>
-        <v>-21.985999999999997</v>
+        <v>4.2309999999999999</v>
       </c>
       <c r="L38" s="11">
-        <f t="shared" ref="L38" si="78">+L36-L37</f>
-        <v>-25.897999999999996</v>
+        <v>4.8769999999999998</v>
       </c>
       <c r="M38" s="11">
-        <f t="shared" ref="M38:V38" si="79">+M36-M37</f>
-        <v>-34.438000000000002</v>
+        <v>5.0069999999999997</v>
       </c>
       <c r="N38" s="11">
-        <f t="shared" si="79"/>
-        <v>-45.960999999999984</v>
+        <f>5.207-0.235</f>
+        <v>4.9719999999999995</v>
       </c>
       <c r="O38" s="11">
-        <f t="shared" si="79"/>
-        <v>-44.122</v>
+        <v>4.7990000000000004</v>
       </c>
       <c r="P38" s="11">
-        <f t="shared" si="79"/>
-        <v>-41.103999999999992</v>
+        <v>4.8010000000000002</v>
       </c>
       <c r="Q38" s="11">
-        <f t="shared" si="79"/>
-        <v>-43.721999999999994</v>
+        <f>4.508+0.015</f>
+        <v>4.5229999999999997</v>
       </c>
       <c r="R38" s="11">
-        <f t="shared" si="79"/>
-        <v>-67.968999999999994</v>
+        <f>4.141-0.111</f>
+        <v>4.03</v>
       </c>
       <c r="S38" s="11">
-        <f t="shared" si="79"/>
-        <v>-64.223500000000001</v>
-      </c>
-      <c r="T38" s="11">
-        <f t="shared" si="79"/>
-        <v>-142.83199999999999</v>
-      </c>
-      <c r="U38" s="11">
-        <f t="shared" si="79"/>
-        <v>-34.491999999999997</v>
-      </c>
-      <c r="V38" s="11">
-        <f t="shared" si="79"/>
-        <v>-58.026000000000003</v>
-      </c>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="11"/>
-      <c r="AD38" s="11">
-        <f t="shared" ref="AD38:AH38" si="80">+AD36-AD37</f>
-        <v>-14.333000000000002</v>
-      </c>
-      <c r="AE38" s="11">
-        <f t="shared" si="80"/>
-        <v>-36.139000000000003</v>
-      </c>
-      <c r="AF38" s="11">
-        <f t="shared" si="80"/>
-        <v>-80.14200000000001</v>
-      </c>
-      <c r="AG38" s="11">
-        <f t="shared" si="80"/>
-        <v>-147.37899999999999</v>
-      </c>
-      <c r="AH38" s="11">
-        <f t="shared" si="80"/>
-        <v>-196.917</v>
-      </c>
-      <c r="AI38" s="11">
-        <f t="shared" ref="AI38" si="81">+AI36-AI37</f>
-        <v>-192.13621000000001</v>
-      </c>
-      <c r="AJ38" s="11">
-        <f t="shared" ref="AJ38" si="82">+AJ36-AJ37</f>
-        <v>-153.04899400000005</v>
-      </c>
-      <c r="AK38" s="11">
-        <f t="shared" ref="AK38" si="83">+AK36-AK37</f>
-        <v>-68.182793350000054</v>
-      </c>
-      <c r="AL38" s="11">
-        <f t="shared" ref="AL38" si="84">+AL36-AL37</f>
-        <v>93.774152382749946</v>
-      </c>
-      <c r="AM38" s="11">
-        <f t="shared" ref="AM38" si="85">+AM36-AM37</f>
-        <v>399.05595498903733</v>
-      </c>
-      <c r="AN38" s="11">
-        <f t="shared" ref="AN38" si="86">+AN36-AN37</f>
-        <v>452.60445158999426</v>
-      </c>
-      <c r="AO38" s="11">
-        <f t="shared" ref="AO38" si="87">+AO36-AO37</f>
-        <v>512.18994290614955</v>
-      </c>
-      <c r="AP38" s="11">
-        <f t="shared" ref="AP38" si="88">+AP36-AP37</f>
-        <v>578.45023566177804</v>
-      </c>
-      <c r="AQ38" s="11">
-        <f t="shared" ref="AQ38" si="89">+AQ36-AQ37</f>
-        <v>652.08862261622028</v>
-      </c>
-      <c r="AR38" s="11">
-        <f t="shared" ref="AR38" si="90">+AR36-AR37</f>
-        <v>733.88051643552001</v>
-      </c>
-      <c r="AS38" s="11">
-        <f t="shared" ref="AS38" si="91">+AS36-AS37</f>
-        <v>824.68075121463335</v>
-      </c>
-      <c r="AT38" s="11">
-        <f>+AS38*(1+$AT$45)</f>
-        <v>816.433943702487</v>
-      </c>
-      <c r="AU38" s="11">
-        <f t="shared" ref="AU38:CD38" si="92">+AT38*(1+$AT$45)</f>
-        <v>808.26960426546214</v>
-      </c>
-      <c r="AV38" s="11">
-        <f t="shared" si="92"/>
-        <v>800.18690822280746</v>
-      </c>
-      <c r="AW38" s="11">
-        <f t="shared" si="92"/>
-        <v>792.18503914057942</v>
-      </c>
-      <c r="AX38" s="11">
-        <f t="shared" si="92"/>
-        <v>784.26318874917365</v>
-      </c>
-      <c r="AY38" s="11">
-        <f t="shared" si="92"/>
-        <v>776.42055686168192</v>
-      </c>
-      <c r="AZ38" s="11">
-        <f t="shared" si="92"/>
-        <v>768.65635129306509</v>
-      </c>
-      <c r="BA38" s="11">
-        <f t="shared" si="92"/>
-        <v>760.96978778013442</v>
-      </c>
-      <c r="BB38" s="11">
-        <f t="shared" si="92"/>
-        <v>753.36008990233313</v>
-      </c>
-      <c r="BC38" s="11">
-        <f t="shared" si="92"/>
-        <v>745.8264890033098</v>
-      </c>
-      <c r="BD38" s="11">
-        <f t="shared" si="92"/>
-        <v>738.36822411327671</v>
-      </c>
-      <c r="BE38" s="11">
-        <f t="shared" si="92"/>
-        <v>730.98454187214395</v>
-      </c>
-      <c r="BF38" s="11">
-        <f t="shared" si="92"/>
-        <v>723.67469645342248</v>
-      </c>
-      <c r="BG38" s="11">
-        <f t="shared" si="92"/>
-        <v>716.43794948888831</v>
-      </c>
-      <c r="BH38" s="11">
-        <f t="shared" si="92"/>
-        <v>709.27356999399944</v>
-      </c>
-      <c r="BI38" s="11">
-        <f t="shared" si="92"/>
-        <v>702.18083429405942</v>
-      </c>
-      <c r="BJ38" s="11">
-        <f t="shared" si="92"/>
-        <v>695.15902595111879</v>
-      </c>
-      <c r="BK38" s="11">
-        <f t="shared" si="92"/>
-        <v>688.20743569160754</v>
-      </c>
-      <c r="BL38" s="11">
-        <f t="shared" si="92"/>
-        <v>681.32536133469148</v>
-      </c>
-      <c r="BM38" s="11">
-        <f t="shared" si="92"/>
-        <v>674.51210772134459</v>
-      </c>
-      <c r="BN38" s="11">
-        <f t="shared" si="92"/>
-        <v>667.76698664413118</v>
-      </c>
-      <c r="BO38" s="11">
-        <f t="shared" si="92"/>
-        <v>661.08931677768987</v>
-      </c>
-      <c r="BP38" s="11">
-        <f t="shared" si="92"/>
-        <v>654.47842360991297</v>
-      </c>
-      <c r="BQ38" s="11">
-        <f t="shared" si="92"/>
-        <v>647.93363937381378</v>
-      </c>
-      <c r="BR38" s="11">
-        <f t="shared" si="92"/>
-        <v>641.45430298007568</v>
-      </c>
-      <c r="BS38" s="11">
-        <f t="shared" si="92"/>
-        <v>635.03975995027497</v>
-      </c>
-      <c r="BT38" s="11">
-        <f t="shared" si="92"/>
-        <v>628.68936235077217</v>
-      </c>
-      <c r="BU38" s="11">
-        <f t="shared" si="92"/>
-        <v>622.40246872726448</v>
-      </c>
-      <c r="BV38" s="11">
-        <f t="shared" si="92"/>
-        <v>616.17844403999186</v>
-      </c>
-      <c r="BW38" s="11">
-        <f t="shared" si="92"/>
-        <v>610.01665959959189</v>
-      </c>
-      <c r="BX38" s="11">
-        <f t="shared" si="92"/>
-        <v>603.91649300359597</v>
-      </c>
-      <c r="BY38" s="11">
-        <f t="shared" si="92"/>
-        <v>597.87732807355997</v>
-      </c>
-      <c r="BZ38" s="11">
-        <f t="shared" si="92"/>
-        <v>591.89855479282437</v>
-      </c>
-      <c r="CA38" s="11">
-        <f t="shared" si="92"/>
-        <v>585.97956924489608</v>
-      </c>
-      <c r="CB38" s="11">
-        <f t="shared" si="92"/>
-        <v>580.1197735524471</v>
-      </c>
-      <c r="CC38" s="11">
-        <f t="shared" si="92"/>
-        <v>574.31857581692259</v>
-      </c>
-      <c r="CD38" s="11">
-        <f t="shared" si="92"/>
-        <v>568.57539005875333</v>
+        <v>4.8940000000000001</v>
+      </c>
+      <c r="T38" s="10">
+        <v>7.1379999999999999</v>
+      </c>
+      <c r="U38" s="10">
+        <v>14.436999999999999</v>
+      </c>
+      <c r="V38" s="10">
+        <f>+U38</f>
+        <v>14.436999999999999</v>
+      </c>
+      <c r="AH38" s="10">
+        <f t="shared" ref="AH38" si="58">SUM(O38:R38)</f>
+        <v>18.153000000000002</v>
       </c>
     </row>
     <row r="39" spans="2:82" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12">
-        <f t="shared" ref="G39:J39" si="93">+G38/G40</f>
-        <v>-8.3646286066414208E-2</v>
-      </c>
-      <c r="H39" s="12">
-        <f t="shared" si="93"/>
-        <v>-8.2235531913648616E-2</v>
-      </c>
-      <c r="I39" s="12">
-        <f t="shared" si="93"/>
-        <v>-0.10751836854075368</v>
-      </c>
-      <c r="J39" s="12">
-        <f t="shared" si="93"/>
-        <v>-9.4799827338986162E-2</v>
-      </c>
-      <c r="K39" s="12">
-        <f t="shared" ref="K39:V39" si="94">+K38/K40</f>
-        <v>-0.10986800423191202</v>
-      </c>
-      <c r="L39" s="12">
-        <f t="shared" si="94"/>
-        <v>-0.12856976575867524</v>
-      </c>
-      <c r="M39" s="12">
-        <f t="shared" si="94"/>
-        <v>-0.16931970672379332</v>
-      </c>
-      <c r="N39" s="12">
-        <f t="shared" si="94"/>
-        <v>-0.223866675624386</v>
-      </c>
-      <c r="O39" s="12">
-        <f t="shared" si="94"/>
-        <v>-0.21196252359231235</v>
-      </c>
-      <c r="P39" s="12">
-        <f t="shared" si="94"/>
-        <v>-0.19421890770112599</v>
-      </c>
-      <c r="Q39" s="12">
-        <f t="shared" si="94"/>
-        <v>-0.2040175879567338</v>
-      </c>
-      <c r="R39" s="12">
-        <f t="shared" si="94"/>
-        <v>-0.31185961190539768</v>
-      </c>
-      <c r="S39" s="12">
-        <f t="shared" si="94"/>
-        <v>-0.28074742414506099</v>
-      </c>
-      <c r="T39" s="12">
-        <f t="shared" si="94"/>
-        <v>-0.56912558642314792</v>
-      </c>
-      <c r="U39" s="12">
-        <f t="shared" si="94"/>
-        <v>-0.13743614685019617</v>
-      </c>
-      <c r="V39" s="12">
-        <f t="shared" si="94"/>
-        <v>-0.23120926177459944</v>
-      </c>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
-      <c r="AD39" s="1">
-        <f t="shared" ref="AD39:AG39" si="95">AD38/AD40</f>
-        <v>-0.12458592650845435</v>
-      </c>
-      <c r="AE39" s="1">
-        <f t="shared" si="95"/>
-        <v>-0.26261972091776725</v>
-      </c>
-      <c r="AF39" s="1"/>
-      <c r="AG39" s="1">
-        <f t="shared" si="95"/>
-        <v>-0.72758198245627148</v>
-      </c>
-      <c r="AH39" s="1">
-        <f>AH38/AH40</f>
-        <v>-0.9244393597940197</v>
-      </c>
-      <c r="AI39" s="1">
-        <f>AI38/AI40</f>
-        <v>-0.90199563758156653</v>
-      </c>
-      <c r="AJ39" s="1">
-        <f t="shared" ref="AJ39:AS39" si="96">AJ38/AJ40</f>
-        <v>-0.71849822021703968</v>
-      </c>
-      <c r="AK39" s="1">
-        <f t="shared" si="96"/>
-        <v>-0.3200884526650416</v>
-      </c>
-      <c r="AL39" s="1">
-        <f t="shared" si="96"/>
-        <v>0.44022871257400942</v>
-      </c>
-      <c r="AM39" s="1">
-        <f t="shared" si="96"/>
-        <v>1.8733935188534094</v>
-      </c>
-      <c r="AN39" s="1">
-        <f t="shared" si="96"/>
-        <v>2.1247803362217468</v>
-      </c>
-      <c r="AO39" s="1">
-        <f t="shared" si="96"/>
-        <v>2.4045082086010674</v>
-      </c>
-      <c r="AP39" s="1">
-        <f t="shared" si="96"/>
-        <v>2.7155713601561771</v>
-      </c>
-      <c r="AQ39" s="1">
-        <f t="shared" si="96"/>
-        <v>3.0612714434015489</v>
-      </c>
-      <c r="AR39" s="1">
-        <f t="shared" si="96"/>
-        <v>3.4452486823329456</v>
-      </c>
-      <c r="AS39" s="1">
-        <f t="shared" si="96"/>
-        <v>3.8715161498870434</v>
+        <v>59</v>
+      </c>
+      <c r="G39" s="11">
+        <f t="shared" ref="G39:J39" si="59">+G37+G38</f>
+        <v>-16.409999999999997</v>
+      </c>
+      <c r="H39" s="11">
+        <f t="shared" si="59"/>
+        <v>-16.218</v>
+      </c>
+      <c r="I39" s="11">
+        <f t="shared" si="59"/>
+        <v>-21.320999999999994</v>
+      </c>
+      <c r="J39" s="11">
+        <f t="shared" si="59"/>
+        <v>-19.106999999999999</v>
+      </c>
+      <c r="K39" s="11">
+        <f t="shared" ref="K39:L39" si="60">+K37+K38</f>
+        <v>-21.985999999999997</v>
+      </c>
+      <c r="L39" s="11">
+        <f t="shared" si="60"/>
+        <v>-25.897999999999996</v>
+      </c>
+      <c r="M39" s="11">
+        <f>+M37+M38</f>
+        <v>-34.438000000000002</v>
+      </c>
+      <c r="N39" s="11">
+        <f t="shared" ref="N39:P39" si="61">+N37+N38</f>
+        <v>-45.969999999999985</v>
+      </c>
+      <c r="O39" s="11">
+        <f t="shared" si="61"/>
+        <v>-44.122</v>
+      </c>
+      <c r="P39" s="11">
+        <f t="shared" si="61"/>
+        <v>-41.103999999999992</v>
+      </c>
+      <c r="Q39" s="11">
+        <f t="shared" ref="Q39:V39" si="62">+Q37+Q38</f>
+        <v>-43.721999999999994</v>
+      </c>
+      <c r="R39" s="11">
+        <f t="shared" si="62"/>
+        <v>-67.968999999999994</v>
+      </c>
+      <c r="S39" s="11">
+        <f t="shared" si="62"/>
+        <v>-64.223500000000001</v>
+      </c>
+      <c r="T39" s="11">
+        <f t="shared" si="62"/>
+        <v>-142.83199999999999</v>
+      </c>
+      <c r="U39" s="11">
+        <f t="shared" si="62"/>
+        <v>-130.19399999999999</v>
+      </c>
+      <c r="V39" s="11">
+        <f t="shared" si="62"/>
+        <v>-50.727000000000004</v>
+      </c>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11">
+        <f t="shared" ref="AD39:AH39" si="63">+AD37+AD38</f>
+        <v>-14.333000000000002</v>
+      </c>
+      <c r="AE39" s="11">
+        <f t="shared" si="63"/>
+        <v>-36.139000000000003</v>
+      </c>
+      <c r="AF39" s="11">
+        <f t="shared" si="63"/>
+        <v>-80.14200000000001</v>
+      </c>
+      <c r="AG39" s="11">
+        <f t="shared" si="63"/>
+        <v>-147.37899999999999</v>
+      </c>
+      <c r="AH39" s="11">
+        <f t="shared" si="63"/>
+        <v>-196.917</v>
+      </c>
+      <c r="AI39" s="11">
+        <f t="shared" ref="AI39" si="64">+AI37+AI38</f>
+        <v>-192.13621000000001</v>
+      </c>
+      <c r="AJ39" s="11">
+        <f t="shared" ref="AJ39" si="65">+AJ37+AJ38</f>
+        <v>-153.04899400000005</v>
+      </c>
+      <c r="AK39" s="11">
+        <f t="shared" ref="AK39" si="66">+AK37+AK38</f>
+        <v>-68.182793350000054</v>
+      </c>
+      <c r="AL39" s="11">
+        <f t="shared" ref="AL39" si="67">+AL37+AL38</f>
+        <v>104.19350264749994</v>
+      </c>
+      <c r="AM39" s="11">
+        <f t="shared" ref="AM39" si="68">+AM37+AM38</f>
+        <v>443.39550554337484</v>
+      </c>
+      <c r="AN39" s="11">
+        <f t="shared" ref="AN39" si="69">+AN37+AN38</f>
+        <v>502.89383509999362</v>
+      </c>
+      <c r="AO39" s="11">
+        <f t="shared" ref="AO39" si="70">+AO37+AO38</f>
+        <v>569.09993656238839</v>
+      </c>
+      <c r="AP39" s="11">
+        <f t="shared" ref="AP39" si="71">+AP37+AP38</f>
+        <v>642.7224840686423</v>
+      </c>
+      <c r="AQ39" s="11">
+        <f t="shared" ref="AQ39" si="72">+AQ37+AQ38</f>
+        <v>724.54291401802254</v>
+      </c>
+      <c r="AR39" s="11">
+        <f t="shared" ref="AR39" si="73">+AR37+AR38</f>
+        <v>815.42279603946668</v>
+      </c>
+      <c r="AS39" s="11">
+        <f t="shared" ref="AS39" si="74">+AS37+AS38</f>
+        <v>916.311945794037</v>
       </c>
     </row>
     <row r="40" spans="2:82" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="O40" s="11">
+        <v>0</v>
+      </c>
+      <c r="P40" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>0</v>
+      </c>
+      <c r="R40" s="11">
+        <v>0</v>
+      </c>
+      <c r="S40" s="11">
+        <v>0</v>
+      </c>
+      <c r="T40" s="10">
+        <v>0</v>
+      </c>
+      <c r="U40" s="10">
+        <v>0</v>
+      </c>
+      <c r="V40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="10">
+        <f t="shared" ref="AH40" si="75">SUM(O40:R40)</f>
+        <v>0</v>
+      </c>
+      <c r="AL40" s="10">
+        <f>+AL39*0.1</f>
+        <v>10.419350264749994</v>
+      </c>
+      <c r="AM40" s="10">
+        <f t="shared" ref="AM40:AS40" si="76">+AM39*0.1</f>
+        <v>44.339550554337485</v>
+      </c>
+      <c r="AN40" s="10">
+        <f t="shared" si="76"/>
+        <v>50.289383509999368</v>
+      </c>
+      <c r="AO40" s="10">
+        <f t="shared" si="76"/>
+        <v>56.909993656238839</v>
+      </c>
+      <c r="AP40" s="10">
+        <f t="shared" si="76"/>
+        <v>64.272248406864236</v>
+      </c>
+      <c r="AQ40" s="10">
+        <f t="shared" si="76"/>
+        <v>72.454291401802251</v>
+      </c>
+      <c r="AR40" s="10">
+        <f t="shared" si="76"/>
+        <v>81.542279603946668</v>
+      </c>
+      <c r="AS40" s="10">
+        <f t="shared" si="76"/>
+        <v>91.631194579403711</v>
+      </c>
+    </row>
+    <row r="41" spans="2:82" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="11">
+        <f t="shared" ref="G41:J41" si="77">+G39-G40</f>
+        <v>-16.409999999999997</v>
+      </c>
+      <c r="H41" s="11">
+        <f t="shared" si="77"/>
+        <v>-16.218</v>
+      </c>
+      <c r="I41" s="11">
+        <f t="shared" si="77"/>
+        <v>-21.320999999999994</v>
+      </c>
+      <c r="J41" s="11">
+        <f t="shared" si="77"/>
+        <v>-19.106999999999999</v>
+      </c>
+      <c r="K41" s="11">
+        <f>+K39-K40</f>
+        <v>-21.985999999999997</v>
+      </c>
+      <c r="L41" s="11">
+        <f t="shared" ref="L41" si="78">+L39-L40</f>
+        <v>-25.897999999999996</v>
+      </c>
+      <c r="M41" s="11">
+        <f t="shared" ref="M41:V41" si="79">+M39-M40</f>
+        <v>-34.438000000000002</v>
+      </c>
+      <c r="N41" s="11">
+        <f t="shared" si="79"/>
+        <v>-45.960999999999984</v>
+      </c>
+      <c r="O41" s="11">
+        <f t="shared" si="79"/>
+        <v>-44.122</v>
+      </c>
+      <c r="P41" s="11">
+        <f t="shared" si="79"/>
+        <v>-41.103999999999992</v>
+      </c>
+      <c r="Q41" s="11">
+        <f t="shared" si="79"/>
+        <v>-43.721999999999994</v>
+      </c>
+      <c r="R41" s="11">
+        <f t="shared" si="79"/>
+        <v>-67.968999999999994</v>
+      </c>
+      <c r="S41" s="11">
+        <f t="shared" si="79"/>
+        <v>-64.223500000000001</v>
+      </c>
+      <c r="T41" s="11">
+        <f t="shared" si="79"/>
+        <v>-142.83199999999999</v>
+      </c>
+      <c r="U41" s="11">
+        <f t="shared" si="79"/>
+        <v>-130.19399999999999</v>
+      </c>
+      <c r="V41" s="11">
+        <f t="shared" si="79"/>
+        <v>-50.727000000000004</v>
+      </c>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11">
+        <f t="shared" ref="AD41:AH41" si="80">+AD39-AD40</f>
+        <v>-14.333000000000002</v>
+      </c>
+      <c r="AE41" s="11">
+        <f t="shared" si="80"/>
+        <v>-36.139000000000003</v>
+      </c>
+      <c r="AF41" s="11">
+        <f t="shared" si="80"/>
+        <v>-80.14200000000001</v>
+      </c>
+      <c r="AG41" s="11">
+        <f t="shared" si="80"/>
+        <v>-147.37899999999999</v>
+      </c>
+      <c r="AH41" s="11">
+        <f t="shared" si="80"/>
+        <v>-196.917</v>
+      </c>
+      <c r="AI41" s="11">
+        <f t="shared" ref="AI41" si="81">+AI39-AI40</f>
+        <v>-192.13621000000001</v>
+      </c>
+      <c r="AJ41" s="11">
+        <f t="shared" ref="AJ41" si="82">+AJ39-AJ40</f>
+        <v>-153.04899400000005</v>
+      </c>
+      <c r="AK41" s="11">
+        <f t="shared" ref="AK41" si="83">+AK39-AK40</f>
+        <v>-68.182793350000054</v>
+      </c>
+      <c r="AL41" s="11">
+        <f t="shared" ref="AL41" si="84">+AL39-AL40</f>
+        <v>93.774152382749946</v>
+      </c>
+      <c r="AM41" s="11">
+        <f t="shared" ref="AM41" si="85">+AM39-AM40</f>
+        <v>399.05595498903733</v>
+      </c>
+      <c r="AN41" s="11">
+        <f t="shared" ref="AN41" si="86">+AN39-AN40</f>
+        <v>452.60445158999426</v>
+      </c>
+      <c r="AO41" s="11">
+        <f t="shared" ref="AO41" si="87">+AO39-AO40</f>
+        <v>512.18994290614955</v>
+      </c>
+      <c r="AP41" s="11">
+        <f t="shared" ref="AP41" si="88">+AP39-AP40</f>
+        <v>578.45023566177804</v>
+      </c>
+      <c r="AQ41" s="11">
+        <f t="shared" ref="AQ41" si="89">+AQ39-AQ40</f>
+        <v>652.08862261622028</v>
+      </c>
+      <c r="AR41" s="11">
+        <f t="shared" ref="AR41" si="90">+AR39-AR40</f>
+        <v>733.88051643552001</v>
+      </c>
+      <c r="AS41" s="11">
+        <f t="shared" ref="AS41" si="91">+AS39-AS40</f>
+        <v>824.68075121463335</v>
+      </c>
+      <c r="AT41" s="11">
+        <f>+AS41*(1+$AT$48)</f>
+        <v>816.433943702487</v>
+      </c>
+      <c r="AU41" s="11">
+        <f t="shared" ref="AU41:CD41" si="92">+AT41*(1+$AT$48)</f>
+        <v>808.26960426546214</v>
+      </c>
+      <c r="AV41" s="11">
+        <f t="shared" si="92"/>
+        <v>800.18690822280746</v>
+      </c>
+      <c r="AW41" s="11">
+        <f t="shared" si="92"/>
+        <v>792.18503914057942</v>
+      </c>
+      <c r="AX41" s="11">
+        <f t="shared" si="92"/>
+        <v>784.26318874917365</v>
+      </c>
+      <c r="AY41" s="11">
+        <f t="shared" si="92"/>
+        <v>776.42055686168192</v>
+      </c>
+      <c r="AZ41" s="11">
+        <f t="shared" si="92"/>
+        <v>768.65635129306509</v>
+      </c>
+      <c r="BA41" s="11">
+        <f t="shared" si="92"/>
+        <v>760.96978778013442</v>
+      </c>
+      <c r="BB41" s="11">
+        <f t="shared" si="92"/>
+        <v>753.36008990233313</v>
+      </c>
+      <c r="BC41" s="11">
+        <f t="shared" si="92"/>
+        <v>745.8264890033098</v>
+      </c>
+      <c r="BD41" s="11">
+        <f t="shared" si="92"/>
+        <v>738.36822411327671</v>
+      </c>
+      <c r="BE41" s="11">
+        <f t="shared" si="92"/>
+        <v>730.98454187214395</v>
+      </c>
+      <c r="BF41" s="11">
+        <f t="shared" si="92"/>
+        <v>723.67469645342248</v>
+      </c>
+      <c r="BG41" s="11">
+        <f t="shared" si="92"/>
+        <v>716.43794948888831</v>
+      </c>
+      <c r="BH41" s="11">
+        <f t="shared" si="92"/>
+        <v>709.27356999399944</v>
+      </c>
+      <c r="BI41" s="11">
+        <f t="shared" si="92"/>
+        <v>702.18083429405942</v>
+      </c>
+      <c r="BJ41" s="11">
+        <f t="shared" si="92"/>
+        <v>695.15902595111879</v>
+      </c>
+      <c r="BK41" s="11">
+        <f t="shared" si="92"/>
+        <v>688.20743569160754</v>
+      </c>
+      <c r="BL41" s="11">
+        <f t="shared" si="92"/>
+        <v>681.32536133469148</v>
+      </c>
+      <c r="BM41" s="11">
+        <f t="shared" si="92"/>
+        <v>674.51210772134459</v>
+      </c>
+      <c r="BN41" s="11">
+        <f t="shared" si="92"/>
+        <v>667.76698664413118</v>
+      </c>
+      <c r="BO41" s="11">
+        <f t="shared" si="92"/>
+        <v>661.08931677768987</v>
+      </c>
+      <c r="BP41" s="11">
+        <f t="shared" si="92"/>
+        <v>654.47842360991297</v>
+      </c>
+      <c r="BQ41" s="11">
+        <f t="shared" si="92"/>
+        <v>647.93363937381378</v>
+      </c>
+      <c r="BR41" s="11">
+        <f t="shared" si="92"/>
+        <v>641.45430298007568</v>
+      </c>
+      <c r="BS41" s="11">
+        <f t="shared" si="92"/>
+        <v>635.03975995027497</v>
+      </c>
+      <c r="BT41" s="11">
+        <f t="shared" si="92"/>
+        <v>628.68936235077217</v>
+      </c>
+      <c r="BU41" s="11">
+        <f t="shared" si="92"/>
+        <v>622.40246872726448</v>
+      </c>
+      <c r="BV41" s="11">
+        <f t="shared" si="92"/>
+        <v>616.17844403999186</v>
+      </c>
+      <c r="BW41" s="11">
+        <f t="shared" si="92"/>
+        <v>610.01665959959189</v>
+      </c>
+      <c r="BX41" s="11">
+        <f t="shared" si="92"/>
+        <v>603.91649300359597</v>
+      </c>
+      <c r="BY41" s="11">
+        <f t="shared" si="92"/>
+        <v>597.87732807355997</v>
+      </c>
+      <c r="BZ41" s="11">
+        <f t="shared" si="92"/>
+        <v>591.89855479282437</v>
+      </c>
+      <c r="CA41" s="11">
+        <f t="shared" si="92"/>
+        <v>585.97956924489608</v>
+      </c>
+      <c r="CB41" s="11">
+        <f t="shared" si="92"/>
+        <v>580.1197735524471</v>
+      </c>
+      <c r="CC41" s="11">
+        <f t="shared" si="92"/>
+        <v>574.31857581692259</v>
+      </c>
+      <c r="CD41" s="11">
+        <f t="shared" si="92"/>
+        <v>568.57539005875333</v>
+      </c>
+    </row>
+    <row r="42" spans="2:82" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12">
+        <f t="shared" ref="G42:J42" si="93">+G41/G43</f>
+        <v>-8.3646286066414208E-2</v>
+      </c>
+      <c r="H42" s="12">
+        <f t="shared" si="93"/>
+        <v>-8.2235531913648616E-2</v>
+      </c>
+      <c r="I42" s="12">
+        <f t="shared" si="93"/>
+        <v>-0.10751836854075368</v>
+      </c>
+      <c r="J42" s="12">
+        <f t="shared" si="93"/>
+        <v>-9.4799827338986162E-2</v>
+      </c>
+      <c r="K42" s="12">
+        <f t="shared" ref="K42:V42" si="94">+K41/K43</f>
+        <v>-0.10986800423191202</v>
+      </c>
+      <c r="L42" s="12">
+        <f t="shared" si="94"/>
+        <v>-0.12856976575867524</v>
+      </c>
+      <c r="M42" s="12">
+        <f t="shared" si="94"/>
+        <v>-0.16931970672379332</v>
+      </c>
+      <c r="N42" s="12">
+        <f t="shared" si="94"/>
+        <v>-0.223866675624386</v>
+      </c>
+      <c r="O42" s="12">
+        <f t="shared" si="94"/>
+        <v>-0.21196252359231235</v>
+      </c>
+      <c r="P42" s="12">
+        <f t="shared" si="94"/>
+        <v>-0.19421890770112599</v>
+      </c>
+      <c r="Q42" s="12">
+        <f t="shared" si="94"/>
+        <v>-0.2040175879567338</v>
+      </c>
+      <c r="R42" s="12">
+        <f t="shared" si="94"/>
+        <v>-0.31185961190539768</v>
+      </c>
+      <c r="S42" s="12">
+        <f t="shared" si="94"/>
+        <v>-0.28074742414506099</v>
+      </c>
+      <c r="T42" s="12">
+        <f t="shared" si="94"/>
+        <v>-0.56912558642314792</v>
+      </c>
+      <c r="U42" s="12">
+        <f t="shared" si="94"/>
+        <v>-0.44204768558935476</v>
+      </c>
+      <c r="V42" s="12">
+        <f t="shared" si="94"/>
+        <v>-0.1722333820828241</v>
+      </c>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AD42" s="1">
+        <f t="shared" ref="AD42:AG42" si="95">AD41/AD43</f>
+        <v>-0.12458592650845435</v>
+      </c>
+      <c r="AE42" s="1">
+        <f t="shared" si="95"/>
+        <v>-0.26261972091776725</v>
+      </c>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1">
+        <f t="shared" si="95"/>
+        <v>-0.72758198245627148</v>
+      </c>
+      <c r="AH42" s="1">
+        <f>AH41/AH43</f>
+        <v>-0.9244393597940197</v>
+      </c>
+      <c r="AI42" s="1">
+        <f>AI41/AI43</f>
+        <v>-0.90199563758156653</v>
+      </c>
+      <c r="AJ42" s="1">
+        <f t="shared" ref="AJ42:AS42" si="96">AJ41/AJ43</f>
+        <v>-0.71849822021703968</v>
+      </c>
+      <c r="AK42" s="1">
+        <f t="shared" si="96"/>
+        <v>-0.3200884526650416</v>
+      </c>
+      <c r="AL42" s="1">
+        <f t="shared" si="96"/>
+        <v>0.44022871257400942</v>
+      </c>
+      <c r="AM42" s="1">
+        <f t="shared" si="96"/>
+        <v>1.8733935188534094</v>
+      </c>
+      <c r="AN42" s="1">
+        <f t="shared" si="96"/>
+        <v>2.1247803362217468</v>
+      </c>
+      <c r="AO42" s="1">
+        <f t="shared" si="96"/>
+        <v>2.4045082086010674</v>
+      </c>
+      <c r="AP42" s="1">
+        <f t="shared" si="96"/>
+        <v>2.7155713601561771</v>
+      </c>
+      <c r="AQ42" s="1">
+        <f t="shared" si="96"/>
+        <v>3.0612714434015489</v>
+      </c>
+      <c r="AR42" s="1">
+        <f t="shared" si="96"/>
+        <v>3.4452486823329456</v>
+      </c>
+      <c r="AS42" s="1">
+        <f t="shared" si="96"/>
+        <v>3.8715161498870434</v>
+      </c>
+    </row>
+    <row r="43" spans="2:82" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11">
         <v>196.18324699999999</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H43" s="11">
         <v>197.214022</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I43" s="11">
         <v>198.30099999999999</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J43" s="11">
         <v>201.55099999999999</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K43" s="11">
         <v>200.112855</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L43" s="11">
         <v>201.43149399999999</v>
       </c>
-      <c r="M40" s="11">
+      <c r="M43" s="11">
         <v>203.39038300000001</v>
       </c>
-      <c r="N40" s="11">
+      <c r="N43" s="11">
         <v>205.30523299999999</v>
       </c>
-      <c r="O40" s="11">
+      <c r="O43" s="11">
         <v>208.15943899999999</v>
       </c>
-      <c r="P40" s="11">
+      <c r="P43" s="11">
         <v>211.63747900000001</v>
       </c>
-      <c r="Q40" s="11">
+      <c r="Q43" s="11">
         <v>214.30505299999999</v>
       </c>
-      <c r="R40" s="11">
+      <c r="R43" s="11">
         <v>217.947427</v>
       </c>
-      <c r="S40" s="11">
+      <c r="S43" s="11">
         <v>228.75899999999999</v>
       </c>
-      <c r="T40" s="10">
+      <c r="T43" s="10">
         <v>250.967455</v>
       </c>
-      <c r="U40" s="10">
-        <f>+T40</f>
-        <v>250.967455</v>
-      </c>
-      <c r="V40" s="10">
-        <f>+U40</f>
-        <v>250.967455</v>
-      </c>
-      <c r="AD40" s="10">
+      <c r="U43" s="10">
+        <v>294.52478600000001</v>
+      </c>
+      <c r="V43" s="10">
+        <f>+U43</f>
+        <v>294.52478600000001</v>
+      </c>
+      <c r="AD43" s="10">
         <v>115.045097</v>
       </c>
-      <c r="AE40" s="10">
+      <c r="AE43" s="10">
         <v>137.60962000000001</v>
       </c>
-      <c r="AG40" s="10">
-        <f>AVERAGE(K40:N40)</f>
+      <c r="AG43" s="10">
+        <f>AVERAGE(K43:N43)</f>
         <v>202.55999125</v>
       </c>
-      <c r="AH40" s="10">
-        <f>AVERAGE(O40:R40)</f>
+      <c r="AH43" s="10">
+        <f>AVERAGE(O43:R43)</f>
         <v>213.01234950000003</v>
       </c>
-      <c r="AI40" s="10">
-        <f>+AH40</f>
+      <c r="AI43" s="10">
+        <f>+AH43</f>
         <v>213.01234950000003</v>
       </c>
-      <c r="AJ40" s="10">
-        <f t="shared" ref="AJ40:AS40" si="97">+AI40</f>
+      <c r="AJ43" s="10">
+        <f t="shared" ref="AJ43:AS43" si="97">+AI43</f>
         <v>213.01234950000003</v>
       </c>
-      <c r="AK40" s="10">
+      <c r="AK43" s="10">
         <f t="shared" si="97"/>
         <v>213.01234950000003</v>
       </c>
-      <c r="AL40" s="10">
+      <c r="AL43" s="10">
         <f t="shared" si="97"/>
         <v>213.01234950000003</v>
       </c>
-      <c r="AM40" s="10">
+      <c r="AM43" s="10">
         <f t="shared" si="97"/>
         <v>213.01234950000003</v>
       </c>
-      <c r="AN40" s="10">
+      <c r="AN43" s="10">
         <f t="shared" si="97"/>
         <v>213.01234950000003</v>
       </c>
-      <c r="AO40" s="10">
+      <c r="AO43" s="10">
         <f t="shared" si="97"/>
         <v>213.01234950000003</v>
       </c>
-      <c r="AP40" s="10">
+      <c r="AP43" s="10">
         <f t="shared" si="97"/>
         <v>213.01234950000003</v>
       </c>
-      <c r="AQ40" s="10">
+      <c r="AQ43" s="10">
         <f t="shared" si="97"/>
         <v>213.01234950000003</v>
       </c>
-      <c r="AR40" s="10">
+      <c r="AR43" s="10">
         <f t="shared" si="97"/>
         <v>213.01234950000003</v>
       </c>
-      <c r="AS40" s="10">
+      <c r="AS43" s="10">
         <f t="shared" si="97"/>
         <v>213.01234950000003</v>
       </c>
     </row>
-    <row r="41" spans="2:82" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
-      <c r="M41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="AF41" s="4"/>
-      <c r="AG41" s="4"/>
-    </row>
-    <row r="42" spans="2:82" ht="13" x14ac:dyDescent="0.3">
-      <c r="B42" s="10" t="s">
+    <row r="44" spans="2:82" x14ac:dyDescent="0.25">
+      <c r="B44" s="10"/>
+      <c r="M44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+    </row>
+    <row r="45" spans="2:82" ht="13" x14ac:dyDescent="0.3">
+      <c r="B45" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="K42" s="17">
-        <f t="shared" ref="K42" si="98">+K27/G27-1</f>
+      <c r="K45" s="17">
+        <f t="shared" ref="K45" si="98">+K30/G30-1</f>
         <v>1.2017409114183306</v>
       </c>
-      <c r="L42" s="17">
-        <f t="shared" ref="L42" si="99">+L27/H27-1</f>
+      <c r="L45" s="17">
+        <f t="shared" ref="L45" si="99">+L30/H30-1</f>
         <v>1.1088957055214723</v>
       </c>
-      <c r="M42" s="17">
-        <f t="shared" ref="M42" si="100">+M27/I27-1</f>
+      <c r="M45" s="17">
+        <f t="shared" ref="M45" si="100">+M30/I30-1</f>
         <v>1.2207745204487876</v>
       </c>
-      <c r="N42" s="17">
-        <f t="shared" ref="N42:V42" si="101">+N27/J27-1</f>
+      <c r="N45" s="17">
+        <f t="shared" ref="N45:V45" si="101">+N30/J30-1</f>
         <v>0.60684210526315874</v>
       </c>
-      <c r="O42" s="17">
+      <c r="O45" s="17">
         <f t="shared" si="101"/>
         <v>0.7632558139534884</v>
       </c>
-      <c r="P42" s="17">
+      <c r="P45" s="17">
         <f t="shared" si="101"/>
         <v>1.0692727272727272</v>
       </c>
-      <c r="Q42" s="17">
+      <c r="Q45" s="17">
         <f t="shared" si="101"/>
         <v>1.0208604954367666</v>
       </c>
-      <c r="R42" s="17">
+      <c r="R45" s="17">
         <f t="shared" si="101"/>
         <v>0.91778578447428694</v>
       </c>
-      <c r="S42" s="17">
+      <c r="S45" s="17">
         <f t="shared" si="101"/>
         <v>-2.0443154840411593E-3</v>
       </c>
-      <c r="T42" s="17">
+      <c r="T45" s="17">
         <f t="shared" si="101"/>
         <v>0.8188208417538001</v>
       </c>
-      <c r="U42" s="16">
+      <c r="U45" s="16">
         <f t="shared" si="101"/>
-        <v>1.0161290322580645</v>
-      </c>
-      <c r="V42" s="16">
+        <v>2.2149999999999999</v>
+      </c>
+      <c r="V45" s="16">
         <f t="shared" si="101"/>
         <v>1.3057216054654139</v>
       </c>
-      <c r="W42" s="16"/>
-      <c r="X42" s="16"/>
-      <c r="Y42" s="16"/>
-      <c r="Z42" s="16"/>
-      <c r="AA42" s="16"/>
-      <c r="AF42" s="4"/>
-      <c r="AG42" s="4"/>
-    </row>
-    <row r="43" spans="2:82" x14ac:dyDescent="0.25">
-      <c r="B43" s="10" t="s">
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+    </row>
+    <row r="46" spans="2:82" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="16">
-        <f t="shared" ref="K43:N43" si="102">+K29/K27</f>
+      <c r="K46" s="16">
+        <f t="shared" ref="K46:N46" si="102">+K32/K30</f>
         <v>0.7590697674418605</v>
       </c>
-      <c r="L43" s="16">
+      <c r="L46" s="16">
         <f t="shared" si="102"/>
         <v>0.65436363636363637</v>
       </c>
-      <c r="M43" s="16">
+      <c r="M46" s="16">
         <f t="shared" si="102"/>
         <v>0.67275097783572357</v>
       </c>
-      <c r="N43" s="16">
+      <c r="N46" s="16">
         <f t="shared" si="102"/>
         <v>0.48198493285293165</v>
       </c>
-      <c r="O43" s="16">
-        <f t="shared" ref="O43:V43" si="103">+O29/O27</f>
+      <c r="O46" s="16">
+        <f t="shared" ref="O46:V46" si="103">+O32/O30</f>
         <v>0.54972302822474273</v>
       </c>
-      <c r="P43" s="16">
+      <c r="P46" s="16">
         <f t="shared" si="103"/>
         <v>0.50593093752745799</v>
       </c>
-      <c r="Q43" s="16">
+      <c r="Q46" s="16">
         <f t="shared" si="103"/>
         <v>0.47459677419354845</v>
       </c>
-      <c r="R43" s="16">
+      <c r="R46" s="16">
         <f t="shared" si="103"/>
         <v>0.56917164816396248</v>
       </c>
-      <c r="S43" s="16">
+      <c r="S46" s="16">
         <f t="shared" si="103"/>
         <v>0.42972312165466192</v>
       </c>
-      <c r="T43" s="16">
+      <c r="T46" s="16">
         <f t="shared" si="103"/>
         <v>0.59772946859903375</v>
       </c>
-      <c r="U43" s="16">
+      <c r="U46" s="16">
+        <f t="shared" si="103"/>
+        <v>0.46688907841268246</v>
+      </c>
+      <c r="V46" s="16">
         <f t="shared" si="103"/>
         <v>0.5</v>
       </c>
-      <c r="V43" s="16">
-        <f t="shared" si="103"/>
-        <v>0.5</v>
-      </c>
-      <c r="AF43" s="4"/>
-      <c r="AG43" s="4"/>
-      <c r="AS43" t="s">
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+      <c r="AS46" t="s">
         <v>63</v>
       </c>
-      <c r="AT43" s="15">
+      <c r="AT46" s="15">
         <v>0.15</v>
       </c>
     </row>
-    <row r="44" spans="2:82" x14ac:dyDescent="0.25">
-      <c r="AF44" s="4"/>
-      <c r="AG44" s="4"/>
-      <c r="AT44" s="15"/>
-    </row>
-    <row r="45" spans="2:82" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="47" spans="2:82" x14ac:dyDescent="0.25">
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="4"/>
+      <c r="AT47" s="15"/>
+    </row>
+    <row r="48" spans="2:82" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>17</v>
       </c>
-      <c r="AF45" s="4">
+      <c r="AF48" s="4">
         <v>-44698</v>
       </c>
-      <c r="AG45" s="4">
+      <c r="AG48" s="4">
         <v>-78811</v>
       </c>
-      <c r="AS45" t="s">
+      <c r="AS48" t="s">
         <v>64</v>
       </c>
-      <c r="AT45" s="15">
+      <c r="AT48" s="15">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="46" spans="2:82" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="49" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>18</v>
       </c>
-      <c r="AF46" s="4">
+      <c r="AF49" s="4">
         <v>-9336</v>
       </c>
-      <c r="AG46" s="4">
+      <c r="AG49" s="4">
         <v>-13703</v>
       </c>
-      <c r="AS46" t="s">
+      <c r="AS49" t="s">
         <v>65</v>
       </c>
-      <c r="AT46" s="4">
-        <f>NPV(AT43,AI38:CD38)</f>
+      <c r="AT49" s="4">
+        <f>NPV(AT46,AI41:CD41)</f>
         <v>2138.2325016748337</v>
       </c>
     </row>
-    <row r="47" spans="2:82" x14ac:dyDescent="0.25">
-      <c r="AS47" t="s">
+    <row r="50" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AS50" t="s">
         <v>66</v>
       </c>
-      <c r="AT47" s="1">
-        <f>AT46/Main!J3</f>
-        <v>7.2033700913034453</v>
-      </c>
-    </row>
-    <row r="48" spans="2:82" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
+      <c r="AT50" s="1">
+        <f>AT49/Main!J3</f>
+        <v>6.0354379873799555</v>
+      </c>
+    </row>
+    <row r="51" spans="2:46" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8">
-        <f>41.752+328.045+32.171</f>
-        <v>401.96800000000002</v>
-      </c>
-      <c r="Q48" s="8">
-        <f>30.172+335.538+17.131</f>
-        <v>382.84100000000001</v>
-      </c>
-      <c r="R48" s="8">
-        <f>54.393+285.896+23.545</f>
-        <v>363.834</v>
-      </c>
-      <c r="S48" s="8">
-        <f>159.681+428.605+108.861</f>
-        <v>697.14700000000005</v>
-      </c>
-      <c r="T48" s="8">
-        <f>140.067+109.902+406.784</f>
-        <v>656.75299999999993</v>
-      </c>
-    </row>
-    <row r="49" spans="2:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8">
-        <v>7.8929999999999998</v>
-      </c>
-      <c r="Q49" s="8">
-        <v>4.1369999999999996</v>
-      </c>
-      <c r="R49" s="8">
-        <v>10.188000000000001</v>
-      </c>
-      <c r="S49" s="8">
-        <v>9.4710000000000001</v>
-      </c>
-      <c r="T49" s="7">
-        <v>19.114000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="2:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8">
-        <v>27.164999999999999</v>
-      </c>
-      <c r="Q50" s="8">
-        <v>25.553000000000001</v>
-      </c>
-      <c r="R50" s="8">
-        <v>28.324999999999999</v>
-      </c>
-      <c r="S50" s="8">
-        <v>39.226999999999997</v>
-      </c>
-      <c r="T50" s="7">
-        <v>59.921999999999997</v>
-      </c>
-    </row>
-    <row r="51" spans="2:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -5902,24 +5892,29 @@
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
       <c r="P51" s="8">
-        <v>47.883000000000003</v>
+        <f>41.752+328.045+32.171</f>
+        <v>401.96800000000002</v>
       </c>
       <c r="Q51" s="8">
-        <v>49.454000000000001</v>
+        <f>30.172+335.538+17.131</f>
+        <v>382.84100000000001</v>
       </c>
       <c r="R51" s="8">
-        <v>52.761000000000003</v>
+        <f>54.393+285.896+23.545</f>
+        <v>363.834</v>
       </c>
       <c r="S51" s="8">
-        <v>51.643999999999998</v>
-      </c>
-      <c r="T51" s="7">
-        <v>58.558</v>
-      </c>
-    </row>
-    <row r="52" spans="2:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <f>159.681+428.605+108.861</f>
+        <v>697.14700000000005</v>
+      </c>
+      <c r="T51" s="8">
+        <f>140.067+109.902+406.784</f>
+        <v>656.75299999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="2:46" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -5935,24 +5930,24 @@
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
       <c r="P52" s="8">
-        <v>9.9380000000000006</v>
+        <v>7.8929999999999998</v>
       </c>
       <c r="Q52" s="8">
-        <v>10.029</v>
+        <v>4.1369999999999996</v>
       </c>
       <c r="R52" s="8">
-        <v>9.4700000000000006</v>
+        <v>10.188000000000001</v>
       </c>
       <c r="S52" s="8">
-        <v>9.2319999999999993</v>
+        <v>9.4710000000000001</v>
       </c>
       <c r="T52" s="7">
-        <v>11.254</v>
-      </c>
-    </row>
-    <row r="53" spans="2:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19.114000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:46" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -5968,29 +5963,24 @@
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
       <c r="P53" s="8">
-        <f>16.969+0.719</f>
-        <v>17.688000000000002</v>
+        <v>27.164999999999999</v>
       </c>
       <c r="Q53" s="8">
-        <f>17.487+0.727</f>
-        <v>18.213999999999999</v>
+        <v>25.553000000000001</v>
       </c>
       <c r="R53" s="8">
-        <f>29.469+9.904</f>
-        <v>39.373000000000005</v>
+        <v>28.324999999999999</v>
       </c>
       <c r="S53" s="8">
-        <f>28.216+10.669</f>
-        <v>38.885000000000005</v>
+        <v>39.226999999999997</v>
       </c>
       <c r="T53" s="7">
-        <f>143.241+370.72</f>
-        <v>513.96100000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="2:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>59.921999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="2:46" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -6006,24 +5996,24 @@
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
       <c r="P54" s="8">
-        <v>4.9000000000000004</v>
+        <v>47.883000000000003</v>
       </c>
       <c r="Q54" s="8">
-        <v>7.6829999999999998</v>
+        <v>49.454000000000001</v>
       </c>
       <c r="R54" s="8">
-        <v>4.4370000000000003</v>
+        <v>52.761000000000003</v>
       </c>
       <c r="S54" s="8">
-        <v>4.468</v>
+        <v>51.643999999999998</v>
       </c>
       <c r="T54" s="7">
-        <v>27.045999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="2:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>58.558</v>
+      </c>
+    </row>
+    <row r="55" spans="2:46" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -6039,133 +6029,133 @@
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
       <c r="P55" s="8">
-        <f>SUM(P48:P54)</f>
+        <v>9.9380000000000006</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>10.029</v>
+      </c>
+      <c r="R55" s="8">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="S55" s="8">
+        <v>9.2319999999999993</v>
+      </c>
+      <c r="T55" s="7">
+        <v>11.254</v>
+      </c>
+    </row>
+    <row r="56" spans="2:46" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8">
+        <f>16.969+0.719</f>
+        <v>17.688000000000002</v>
+      </c>
+      <c r="Q56" s="8">
+        <f>17.487+0.727</f>
+        <v>18.213999999999999</v>
+      </c>
+      <c r="R56" s="8">
+        <f>29.469+9.904</f>
+        <v>39.373000000000005</v>
+      </c>
+      <c r="S56" s="8">
+        <f>28.216+10.669</f>
+        <v>38.885000000000005</v>
+      </c>
+      <c r="T56" s="7">
+        <f>143.241+370.72</f>
+        <v>513.96100000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:46" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Q57" s="8">
+        <v>7.6829999999999998</v>
+      </c>
+      <c r="R57" s="8">
+        <v>4.4370000000000003</v>
+      </c>
+      <c r="S57" s="8">
+        <v>4.468</v>
+      </c>
+      <c r="T57" s="7">
+        <v>27.045999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="2:46" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8">
+        <f>SUM(P51:P57)</f>
         <v>517.43499999999995</v>
       </c>
-      <c r="Q55" s="8">
-        <f>SUM(Q48:Q54)</f>
+      <c r="Q58" s="8">
+        <f>SUM(Q51:Q57)</f>
         <v>497.911</v>
       </c>
-      <c r="R55" s="8">
-        <f>SUM(R48:R54)</f>
+      <c r="R58" s="8">
+        <f>SUM(R51:R57)</f>
         <v>508.38800000000003</v>
       </c>
-      <c r="S55" s="8">
-        <f>SUM(S48:S54)</f>
+      <c r="S58" s="8">
+        <f>SUM(S51:S57)</f>
         <v>850.07399999999996</v>
       </c>
-      <c r="T55" s="9">
-        <f>SUM(T48:T54)</f>
+      <c r="T58" s="9">
+        <f>SUM(T51:T57)</f>
         <v>1346.6079999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="4" t="s">
+    <row r="60" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9">
-        <v>6.3239999999999998</v>
-      </c>
-      <c r="Q57" s="9">
-        <v>4.8540000000000001</v>
-      </c>
-      <c r="R57" s="9">
-        <v>5.23</v>
-      </c>
-      <c r="S57" s="9">
-        <v>8.7520000000000007</v>
-      </c>
-      <c r="T57" s="4">
-        <v>8.9380000000000006</v>
-      </c>
-    </row>
-    <row r="58" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9">
-        <v>8.9250000000000007</v>
-      </c>
-      <c r="Q58" s="9">
-        <v>15.657</v>
-      </c>
-      <c r="R58" s="9">
-        <v>16.423999999999999</v>
-      </c>
-      <c r="S58" s="9">
-        <v>23.594999999999999</v>
-      </c>
-      <c r="T58" s="4">
-        <v>49.19</v>
-      </c>
-    </row>
-    <row r="59" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9">
-        <f>1.479+15.152</f>
-        <v>16.631</v>
-      </c>
-      <c r="Q59" s="9">
-        <f>3.089+15.214</f>
-        <v>18.303000000000001</v>
-      </c>
-      <c r="R59" s="9">
-        <f>3.366+14.359</f>
-        <v>17.725000000000001</v>
-      </c>
-      <c r="S59" s="9">
-        <f>3.621+13.739</f>
-        <v>17.36</v>
-      </c>
-      <c r="T59" s="4">
-        <f>5.528+13.737</f>
-        <v>19.265000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -6181,27 +6171,24 @@
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
       <c r="P60" s="9">
-        <f>13.668+0.121</f>
-        <v>13.789</v>
+        <v>6.3239999999999998</v>
       </c>
       <c r="Q60" s="9">
-        <f>8.332+0.06</f>
-        <v>8.3920000000000012</v>
+        <v>4.8540000000000001</v>
       </c>
       <c r="R60" s="9">
-        <v>10.678000000000001</v>
+        <v>5.23</v>
       </c>
       <c r="S60" s="9">
-        <v>12.061</v>
+        <v>8.7520000000000007</v>
       </c>
       <c r="T60" s="4">
-        <f>16.726+2.77</f>
-        <v>19.495999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>8.9380000000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -6217,26 +6204,24 @@
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
       <c r="P61" s="9">
-        <f>0.392+0.252</f>
-        <v>0.64400000000000002</v>
+        <v>8.9250000000000007</v>
       </c>
       <c r="Q61" s="9">
-        <f>0.392+0.154</f>
-        <v>0.54600000000000004</v>
+        <v>15.657</v>
       </c>
       <c r="R61" s="9">
-        <v>6.0999999999999999E-2</v>
+        <v>16.423999999999999</v>
       </c>
       <c r="S61" s="9">
-        <v>0.35</v>
+        <v>23.594999999999999</v>
       </c>
       <c r="T61" s="4">
-        <v>0.252</v>
-      </c>
-    </row>
-    <row r="62" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>49.19</v>
+      </c>
+    </row>
+    <row r="62" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -6252,24 +6237,29 @@
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
       <c r="P62" s="9">
-        <v>7.7380000000000004</v>
+        <f>1.479+15.152</f>
+        <v>16.631</v>
       </c>
       <c r="Q62" s="9">
-        <v>11.606999999999999</v>
+        <f>3.089+15.214</f>
+        <v>18.303000000000001</v>
       </c>
       <c r="R62" s="9">
-        <v>70.688000000000002</v>
+        <f>3.366+14.359</f>
+        <v>17.725000000000001</v>
       </c>
       <c r="S62" s="9">
-        <v>21.241</v>
+        <f>3.621+13.739</f>
+        <v>17.36</v>
       </c>
       <c r="T62" s="4">
-        <v>58.042000000000002</v>
-      </c>
-    </row>
-    <row r="63" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <f>5.528+13.737</f>
+        <v>19.265000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -6285,24 +6275,27 @@
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
       <c r="P63" s="9">
-        <v>0.11</v>
+        <f>13.668+0.121</f>
+        <v>13.789</v>
       </c>
       <c r="Q63" s="9">
-        <v>2.8690000000000002</v>
+        <f>8.332+0.06</f>
+        <v>8.3920000000000012</v>
       </c>
       <c r="R63" s="9">
-        <v>3.3330000000000002</v>
+        <v>10.678000000000001</v>
       </c>
       <c r="S63" s="9">
-        <v>1.667</v>
+        <v>12.061</v>
       </c>
       <c r="T63" s="4">
-        <v>12.978999999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <f>16.726+2.77</f>
+        <v>19.495999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="2:46" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -6318,24 +6311,26 @@
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
       <c r="P64" s="9">
-        <v>463.274</v>
+        <f>0.392+0.252</f>
+        <v>0.64400000000000002</v>
       </c>
       <c r="Q64" s="9">
-        <v>435.68299999999999</v>
+        <f>0.392+0.154</f>
+        <v>0.54600000000000004</v>
       </c>
       <c r="R64" s="9">
-        <v>383.86200000000002</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="S64" s="9">
-        <v>765.048</v>
+        <v>0.35</v>
       </c>
       <c r="T64" s="4">
-        <v>1178.4459999999999</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="65" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -6351,32 +6346,131 @@
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
       <c r="P65" s="9">
-        <f>SUM(P57:P64)</f>
-        <v>517.43499999999995</v>
+        <v>7.7380000000000004</v>
       </c>
       <c r="Q65" s="9">
-        <f>SUM(Q57:Q64)</f>
-        <v>497.911</v>
+        <v>11.606999999999999</v>
       </c>
       <c r="R65" s="9">
-        <f>SUM(R57:R64)</f>
-        <v>508.00100000000003</v>
+        <v>70.688000000000002</v>
       </c>
       <c r="S65" s="9">
-        <f>SUM(S57:S64)</f>
-        <v>850.07400000000007</v>
-      </c>
-      <c r="T65" s="9">
-        <f>SUM(T57:T64)</f>
-        <v>1346.6079999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="N67" s="9">
-        <v>206.611704</v>
-      </c>
+        <v>21.241</v>
+      </c>
+      <c r="T65" s="4">
+        <v>58.042000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="Q66" s="9">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="R66" s="9">
+        <v>3.3330000000000002</v>
+      </c>
+      <c r="S66" s="9">
+        <v>1.667</v>
+      </c>
+      <c r="T66" s="4">
+        <v>12.978999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
       <c r="O67" s="9"/>
       <c r="P67" s="9">
+        <v>463.274</v>
+      </c>
+      <c r="Q67" s="9">
+        <v>435.68299999999999</v>
+      </c>
+      <c r="R67" s="9">
+        <v>383.86200000000002</v>
+      </c>
+      <c r="S67" s="9">
+        <v>765.048</v>
+      </c>
+      <c r="T67" s="4">
+        <v>1178.4459999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9">
+        <f>SUM(P60:P67)</f>
+        <v>517.43499999999995</v>
+      </c>
+      <c r="Q68" s="9">
+        <f>SUM(Q60:Q67)</f>
+        <v>497.911</v>
+      </c>
+      <c r="R68" s="9">
+        <f>SUM(R60:R67)</f>
+        <v>508.00100000000003</v>
+      </c>
+      <c r="S68" s="9">
+        <f>SUM(S60:S67)</f>
+        <v>850.07400000000007</v>
+      </c>
+      <c r="T68" s="9">
+        <f>SUM(T60:T67)</f>
+        <v>1346.6079999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N70" s="9">
+        <v>206.611704</v>
+      </c>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9">
         <v>213.72250299999999</v>
       </c>
     </row>
